--- a/BackTest/2019-10-27 BackTest RDN.xlsx
+++ b/BackTest/2019-10-27 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>243.3862</v>
       </c>
       <c r="G2" t="n">
-        <v>-9759.2425700565</v>
+        <v>175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>8826</v>
       </c>
       <c r="G3" t="n">
-        <v>-9759.2425700565</v>
+        <v>174</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-9758.2425700565</v>
+        <v>175</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>-9958.2425700565</v>
+        <v>174.6666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,13 +597,13 @@
         <v>2187</v>
       </c>
       <c r="G6" t="n">
-        <v>-9958.2425700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-9957.2425700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,13 +669,13 @@
         <v>356</v>
       </c>
       <c r="G8" t="n">
-        <v>-10313.2425700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>4126</v>
       </c>
       <c r="G9" t="n">
-        <v>-10313.2425700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-10312.2425700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>191.8</v>
       </c>
       <c r="G11" t="n">
-        <v>-10312.2425700565</v>
+        <v>175.6666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>3897</v>
       </c>
       <c r="G12" t="n">
-        <v>-14209.2425700565</v>
+        <v>175.6666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>1886</v>
       </c>
       <c r="G13" t="n">
-        <v>-14209.2425700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>-14208.2425700565</v>
+        <v>174</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>1281.2409</v>
       </c>
       <c r="G15" t="n">
-        <v>-15489.4834700565</v>
+        <v>174</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>3072.3745</v>
       </c>
       <c r="G16" t="n">
-        <v>-12417.1089700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-12416.1089700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>10687.9079</v>
       </c>
       <c r="G18" t="n">
-        <v>-23104.0168700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>1752.6416</v>
       </c>
       <c r="G19" t="n">
-        <v>-23104.0168700565</v>
+        <v>174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>12675.9715</v>
       </c>
       <c r="G20" t="n">
-        <v>-23104.0168700565</v>
+        <v>173</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>1.2549</v>
       </c>
       <c r="G21" t="n">
-        <v>-23102.7619700565</v>
+        <v>174</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>1301</v>
       </c>
       <c r="G22" t="n">
-        <v>-24403.7619700565</v>
+        <v>174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>6614.3214</v>
       </c>
       <c r="G23" t="n">
-        <v>-24403.7619700565</v>
+        <v>174</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>1625.7892</v>
       </c>
       <c r="G24" t="n">
-        <v>-26029.5511700565</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>2109.2281</v>
       </c>
       <c r="G25" t="n">
-        <v>-26029.5511700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>2921.9264</v>
       </c>
       <c r="G26" t="n">
-        <v>-23107.6247700565</v>
+        <v>173</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>41.8936</v>
       </c>
       <c r="G27" t="n">
-        <v>-23149.5183700565</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>34.1492</v>
       </c>
       <c r="G28" t="n">
-        <v>-23115.3691700565</v>
+        <v>174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>391.8508</v>
       </c>
       <c r="G29" t="n">
-        <v>-23115.3691700565</v>
+        <v>173.6666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>932.2127</v>
       </c>
       <c r="G30" t="n">
-        <v>-23115.3691700565</v>
+        <v>174</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>6963.8705</v>
       </c>
       <c r="G31" t="n">
-        <v>-30079.2396700565</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>1013</v>
       </c>
       <c r="G32" t="n">
-        <v>-29066.2396700565</v>
+        <v>173.6666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>899.2538</v>
       </c>
       <c r="G33" t="n">
-        <v>-29066.2396700565</v>
+        <v>174</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>2541</v>
       </c>
       <c r="G34" t="n">
-        <v>-29066.2396700565</v>
+        <v>175</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>4632.743</v>
       </c>
       <c r="G35" t="n">
-        <v>-29066.2396700565</v>
+        <v>175</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-29065.2396700565</v>
+        <v>175.3333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>6165.6432</v>
       </c>
       <c r="G37" t="n">
-        <v>-29065.2396700565</v>
+        <v>175.6666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>1649.4419</v>
       </c>
       <c r="G38" t="n">
-        <v>-29065.2396700565</v>
+        <v>176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>3887.9283</v>
       </c>
       <c r="G39" t="n">
-        <v>-29065.2396700565</v>
+        <v>176</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>849.7</v>
       </c>
       <c r="G40" t="n">
-        <v>-29065.2396700565</v>
+        <v>176</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>3122.4594</v>
       </c>
       <c r="G41" t="n">
-        <v>-32187.6990700565</v>
+        <v>175.3333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-32186.6990700565</v>
+        <v>175.3333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>727.2666</v>
       </c>
       <c r="G43" t="n">
-        <v>-32913.9656700565</v>
+        <v>174.6666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>526.8833</v>
       </c>
       <c r="G44" t="n">
-        <v>-32913.9656700565</v>
+        <v>174.6666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>281</v>
       </c>
       <c r="G45" t="n">
-        <v>-32913.9656700565</v>
+        <v>174</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>5649.7175</v>
       </c>
       <c r="G46" t="n">
-        <v>-38563.6831700565</v>
+        <v>173.6666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>-38562.6831700565</v>
+        <v>174</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>4285.0298</v>
       </c>
       <c r="G48" t="n">
-        <v>-38562.6831700565</v>
+        <v>174.3333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>1.813</v>
       </c>
       <c r="G49" t="n">
-        <v>-38562.6831700565</v>
+        <v>175</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>20818.7454</v>
       </c>
       <c r="G50" t="n">
-        <v>-59381.4285700565</v>
+        <v>174</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>1.2549</v>
       </c>
       <c r="G51" t="n">
-        <v>-59380.1736700565</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>4967.4611</v>
       </c>
       <c r="G52" t="n">
-        <v>-64347.6347700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>1170.0125</v>
       </c>
       <c r="G53" t="n">
-        <v>-64347.6347700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>496</v>
       </c>
       <c r="G54" t="n">
-        <v>-64347.6347700565</v>
+        <v>172</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>554</v>
       </c>
       <c r="G55" t="n">
-        <v>-64347.6347700565</v>
+        <v>172</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>2863</v>
       </c>
       <c r="G56" t="n">
-        <v>-64347.6347700565</v>
+        <v>172</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>1.2549</v>
       </c>
       <c r="G57" t="n">
-        <v>-64346.3798700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,7 +2469,7 @@
         <v>474</v>
       </c>
       <c r="G58" t="n">
-        <v>-64820.3798700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>1315.9432</v>
       </c>
       <c r="G59" t="n">
-        <v>-64820.3798700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2461,6 +2523,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2482,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-64819.3798700565</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2502,6 +2565,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2523,7 +2587,7 @@
         <v>7.3294</v>
       </c>
       <c r="G61" t="n">
-        <v>-64826.7092700565</v>
+        <v>173</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,6 +2607,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2564,7 +2629,7 @@
         <v>586.9402</v>
       </c>
       <c r="G62" t="n">
-        <v>-64826.7092700565</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,6 +2643,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2599,7 +2665,7 @@
         <v>3967.2367</v>
       </c>
       <c r="G63" t="n">
-        <v>-68793.94597005651</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,6 +2679,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2634,7 +2701,7 @@
         <v>1694</v>
       </c>
       <c r="G64" t="n">
-        <v>-67099.94597005651</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,6 +2715,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2669,7 +2737,7 @@
         <v>1406</v>
       </c>
       <c r="G65" t="n">
-        <v>-67099.94597005651</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,6 +2751,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2704,7 +2773,7 @@
         <v>4076</v>
       </c>
       <c r="G66" t="n">
-        <v>-71175.94597005651</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,6 +2787,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2739,7 +2809,7 @@
         <v>5245.5269</v>
       </c>
       <c r="G67" t="n">
-        <v>-76421.4728700565</v>
+        <v>172</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,6 +2823,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2774,7 +2845,7 @@
         <v>1807.2165</v>
       </c>
       <c r="G68" t="n">
-        <v>-74614.25637005651</v>
+        <v>171.6666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,6 +2859,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2809,7 +2881,7 @@
         <v>50</v>
       </c>
       <c r="G69" t="n">
-        <v>-74614.25637005651</v>
+        <v>171.6666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,6 +2895,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2844,7 +2917,7 @@
         <v>6.65</v>
       </c>
       <c r="G70" t="n">
-        <v>-74620.9063700565</v>
+        <v>171.6666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -2862,6 +2935,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2883,7 +2957,7 @@
         <v>2825.7366</v>
       </c>
       <c r="G71" t="n">
-        <v>-71795.1697700565</v>
+        <v>171.6666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2903,6 +2977,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2924,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-71794.1697700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2944,6 +3019,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2965,7 +3041,7 @@
         <v>968</v>
       </c>
       <c r="G73" t="n">
-        <v>-72762.1697700565</v>
+        <v>173</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2979,6 +3055,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3000,7 +3077,7 @@
         <v>266.4845</v>
       </c>
       <c r="G74" t="n">
-        <v>-72762.1697700565</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3014,6 +3091,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3035,7 +3113,7 @@
         <v>742</v>
       </c>
       <c r="G75" t="n">
-        <v>-72762.1697700565</v>
+        <v>173</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3049,6 +3127,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3070,7 +3149,7 @@
         <v>251</v>
       </c>
       <c r="G76" t="n">
-        <v>-72762.1697700565</v>
+        <v>173</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3084,6 +3163,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3105,7 +3185,7 @@
         <v>3381.5773</v>
       </c>
       <c r="G77" t="n">
-        <v>-72762.1697700565</v>
+        <v>173</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3119,6 +3199,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3140,7 +3221,7 @@
         <v>1283.8215</v>
       </c>
       <c r="G78" t="n">
-        <v>-72762.1697700565</v>
+        <v>173</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3154,6 +3235,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,7 +3257,7 @@
         <v>1013.4484</v>
       </c>
       <c r="G79" t="n">
-        <v>-73775.61817005649</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3189,6 +3271,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3210,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>-73774.61817005649</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3224,6 +3307,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3245,7 +3329,7 @@
         <v>4569</v>
       </c>
       <c r="G81" t="n">
-        <v>-73774.61817005649</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3259,6 +3343,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3280,7 +3365,7 @@
         <v>2766.9082</v>
       </c>
       <c r="G82" t="n">
-        <v>-73774.61817005649</v>
+        <v>173</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3294,6 +3379,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3315,7 +3401,7 @@
         <v>1000</v>
       </c>
       <c r="G83" t="n">
-        <v>-72774.61817005649</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3329,6 +3415,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3350,7 +3437,7 @@
         <v>4130.1276</v>
       </c>
       <c r="G84" t="n">
-        <v>-76904.7457700565</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3364,6 +3451,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3385,7 +3473,7 @@
         <v>2923.9765</v>
       </c>
       <c r="G85" t="n">
-        <v>-73980.76927005649</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3399,6 +3487,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3420,7 +3509,7 @@
         <v>2923.9765</v>
       </c>
       <c r="G86" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3434,6 +3523,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3455,7 +3545,7 @@
         <v>9485.828299999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-76904.7457700565</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3469,6 +3559,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3490,7 +3581,7 @@
         <v>826.8339</v>
       </c>
       <c r="G88" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3504,6 +3595,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3525,7 +3617,7 @@
         <v>73</v>
       </c>
       <c r="G89" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3539,6 +3631,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3560,7 +3653,7 @@
         <v>1493.7419</v>
       </c>
       <c r="G90" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3574,6 +3667,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3595,7 +3689,7 @@
         <v>272</v>
       </c>
       <c r="G91" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3609,6 +3703,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3630,7 +3725,7 @@
         <v>362.5896</v>
       </c>
       <c r="G92" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3644,6 +3739,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3665,7 +3761,7 @@
         <v>301.2744</v>
       </c>
       <c r="G93" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3679,6 +3775,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3700,7 +3797,7 @@
         <v>16.9998</v>
       </c>
       <c r="G94" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3714,6 +3811,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3735,7 +3833,7 @@
         <v>4055.7816</v>
       </c>
       <c r="G95" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3749,6 +3847,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3770,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="G96" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3784,6 +3883,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3805,7 +3905,7 @@
         <v>1200</v>
       </c>
       <c r="G97" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3823,6 +3923,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3844,7 +3945,7 @@
         <v>5400</v>
       </c>
       <c r="G98" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3864,6 +3965,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3885,7 +3987,7 @@
         <v>2751</v>
       </c>
       <c r="G99" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3905,6 +4007,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3926,7 +4029,7 @@
         <v>2621</v>
       </c>
       <c r="G100" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3940,6 +4043,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3961,7 +4065,7 @@
         <v>920</v>
       </c>
       <c r="G101" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3975,6 +4079,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3996,7 +4101,7 @@
         <v>2071.2682</v>
       </c>
       <c r="G102" t="n">
-        <v>-76904.7457700565</v>
+        <v>172</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4010,6 +4115,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4031,7 +4137,7 @@
         <v>2923.9765</v>
       </c>
       <c r="G103" t="n">
-        <v>-73980.76927005649</v>
+        <v>172.3333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4045,6 +4151,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4066,7 +4173,7 @@
         <v>1100</v>
       </c>
       <c r="G104" t="n">
-        <v>-73980.76927005649</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4084,6 +4191,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4105,7 +4213,7 @@
         <v>427.7055</v>
       </c>
       <c r="G105" t="n">
-        <v>-73980.76927005649</v>
+        <v>173</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4127,6 +4235,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4148,7 +4257,7 @@
         <v>16.39655172413793</v>
       </c>
       <c r="G106" t="n">
-        <v>-73964.37271833235</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4170,6 +4279,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4191,7 +4301,7 @@
         <v>1454</v>
       </c>
       <c r="G107" t="n">
-        <v>-75418.37271833235</v>
+        <v>173</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4211,6 +4321,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4232,7 +4343,7 @@
         <v>1735.9091</v>
       </c>
       <c r="G108" t="n">
-        <v>-75418.37271833235</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4252,6 +4363,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4273,7 +4385,7 @@
         <v>842.8188</v>
       </c>
       <c r="G109" t="n">
-        <v>-75418.37271833235</v>
+        <v>172</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4295,6 +4407,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4316,7 +4429,7 @@
         <v>1864</v>
       </c>
       <c r="G110" t="n">
-        <v>-75418.37271833235</v>
+        <v>172</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4336,6 +4449,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4357,7 +4471,7 @@
         <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>-75418.37271833235</v>
+        <v>172</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4379,6 +4493,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4400,7 +4515,7 @@
         <v>4440.5528</v>
       </c>
       <c r="G112" t="n">
-        <v>-79858.92551833235</v>
+        <v>171.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4422,6 +4537,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4443,7 +4559,7 @@
         <v>11640.5536</v>
       </c>
       <c r="G113" t="n">
-        <v>-79858.92551833235</v>
+        <v>171.3333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4465,6 +4581,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4486,7 +4603,7 @@
         <v>455.6222</v>
       </c>
       <c r="G114" t="n">
-        <v>-79403.30331833236</v>
+        <v>171.3333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4508,6 +4625,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4529,7 +4647,7 @@
         <v>354.6511</v>
       </c>
       <c r="G115" t="n">
-        <v>-79403.30331833236</v>
+        <v>171.6666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4551,6 +4669,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4572,7 +4691,7 @@
         <v>458</v>
       </c>
       <c r="G116" t="n">
-        <v>-79403.30331833236</v>
+        <v>172</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4592,6 +4711,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4613,7 +4733,7 @@
         <v>33</v>
       </c>
       <c r="G117" t="n">
-        <v>-79403.30331833236</v>
+        <v>172</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4633,6 +4753,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,7 +4775,7 @@
         <v>421.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>-79825.30321833235</v>
+        <v>171.6666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4674,6 +4795,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4695,7 +4817,7 @@
         <v>35.7434</v>
       </c>
       <c r="G119" t="n">
-        <v>-79825.30321833235</v>
+        <v>171.3333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4715,6 +4837,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4736,7 +4859,7 @@
         <v>56.0344</v>
       </c>
       <c r="G120" t="n">
-        <v>-79769.26881833235</v>
+        <v>172</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4756,6 +4879,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4777,7 +4901,7 @@
         <v>498.9161</v>
       </c>
       <c r="G121" t="n">
-        <v>-80268.18491833235</v>
+        <v>172.6666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4797,6 +4921,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4818,7 +4943,7 @@
         <v>1968.2138</v>
       </c>
       <c r="G122" t="n">
-        <v>-80268.18491833235</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4838,6 +4963,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4859,7 +4985,7 @@
         <v>6850.5317</v>
       </c>
       <c r="G123" t="n">
-        <v>-80268.18491833235</v>
+        <v>173</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4879,6 +5005,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4900,7 +5027,7 @@
         <v>270.4448</v>
       </c>
       <c r="G124" t="n">
-        <v>-80268.18491833235</v>
+        <v>173</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4920,6 +5047,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4941,7 +5069,7 @@
         <v>856.3390000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-79411.84591833234</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4961,6 +5089,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4982,7 +5111,7 @@
         <v>300</v>
       </c>
       <c r="G126" t="n">
-        <v>-79711.84591833234</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -5004,6 +5133,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest RDN.xlsx
+++ b/BackTest/2019-10-27 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D2" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E2" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F2" t="n">
-        <v>243.3862</v>
+        <v>322.8358</v>
       </c>
       <c r="G2" t="n">
-        <v>175</v>
+        <v>-8445.909670056499</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D3" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E3" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F3" t="n">
-        <v>8826</v>
+        <v>542</v>
       </c>
       <c r="G3" t="n">
-        <v>174</v>
+        <v>-8987.909670056499</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>175</v>
+        <v>-8986.909670056499</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C5" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D5" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E5" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>5600</v>
       </c>
       <c r="G5" t="n">
-        <v>174.6666666666667</v>
+        <v>-3386.909670056499</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C6" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D6" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E6" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F6" t="n">
-        <v>2187</v>
+        <v>499.2882</v>
       </c>
       <c r="G6" t="n">
-        <v>174.3333333333333</v>
+        <v>-2887.621470056499</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C7" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E7" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2974</v>
       </c>
       <c r="G7" t="n">
-        <v>174.3333333333333</v>
+        <v>-5861.621470056499</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D8" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E8" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F8" t="n">
-        <v>356</v>
+        <v>7787.1</v>
       </c>
       <c r="G8" t="n">
-        <v>174.3333333333333</v>
+        <v>1925.478529943502</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C9" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D9" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E9" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F9" t="n">
-        <v>4126</v>
+        <v>149</v>
       </c>
       <c r="G9" t="n">
-        <v>174.3333333333333</v>
+        <v>2074.478529943502</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -729,25 +729,25 @@
         <v>177</v>
       </c>
       <c r="C10" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E10" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3135.2051</v>
       </c>
       <c r="G10" t="n">
-        <v>174.3333333333333</v>
+        <v>-1060.726570056499</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D11" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E11" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F11" t="n">
-        <v>191.8</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>175.6666666666667</v>
+        <v>-1010.726570056499</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C12" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D12" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E12" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F12" t="n">
-        <v>3897</v>
+        <v>1402</v>
       </c>
       <c r="G12" t="n">
-        <v>175.6666666666667</v>
+        <v>-1010.726570056499</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C13" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D13" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E13" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F13" t="n">
-        <v>1886</v>
+        <v>301</v>
       </c>
       <c r="G13" t="n">
-        <v>174.3333333333333</v>
+        <v>-1010.726570056499</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C14" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D14" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G14" t="n">
-        <v>174</v>
+        <v>-1010.726570056499</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C15" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D15" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E15" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F15" t="n">
-        <v>1281.2409</v>
+        <v>900</v>
       </c>
       <c r="G15" t="n">
-        <v>174</v>
+        <v>-1010.726570056499</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D16" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E16" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F16" t="n">
-        <v>3072.3745</v>
+        <v>259.1</v>
       </c>
       <c r="G16" t="n">
-        <v>174.3333333333333</v>
+        <v>-1010.726570056499</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
         <v>176</v>
       </c>
       <c r="D17" t="n">
+        <v>177</v>
+      </c>
+      <c r="E17" t="n">
         <v>176</v>
       </c>
-      <c r="E17" t="n">
-        <v>174</v>
-      </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>1361.9163</v>
       </c>
       <c r="G17" t="n">
-        <v>174.3333333333333</v>
+        <v>-2372.642870056498</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C18" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D18" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E18" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F18" t="n">
-        <v>10687.9079</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>174.3333333333333</v>
+        <v>-2371.642870056498</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C19" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D19" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E19" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F19" t="n">
-        <v>1752.6416</v>
+        <v>1158.1</v>
       </c>
       <c r="G19" t="n">
-        <v>174</v>
+        <v>-3529.742870056498</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C20" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D20" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E20" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F20" t="n">
-        <v>12675.9715</v>
+        <v>826</v>
       </c>
       <c r="G20" t="n">
-        <v>173</v>
+        <v>-3529.742870056498</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D21" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E21" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2549</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>174</v>
+        <v>-3528.742870056498</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D22" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E22" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F22" t="n">
-        <v>1301</v>
+        <v>3353.4999</v>
       </c>
       <c r="G22" t="n">
-        <v>174</v>
+        <v>-6882.242770056499</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C23" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D23" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E23" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F23" t="n">
-        <v>6614.3214</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>174</v>
+        <v>-6881.242770056499</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C24" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D24" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E24" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F24" t="n">
-        <v>1625.7892</v>
+        <v>1386.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>172.6666666666667</v>
+        <v>-8268.242670056499</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C25" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D25" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E25" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F25" t="n">
-        <v>2109.2281</v>
+        <v>3675.3943</v>
       </c>
       <c r="G25" t="n">
-        <v>172.3333333333333</v>
+        <v>-8268.242670056499</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C26" t="n">
+        <v>177</v>
+      </c>
+      <c r="D26" t="n">
+        <v>177</v>
+      </c>
+      <c r="E26" t="n">
         <v>175</v>
       </c>
-      <c r="D26" t="n">
-        <v>175</v>
-      </c>
-      <c r="E26" t="n">
-        <v>172</v>
-      </c>
       <c r="F26" t="n">
-        <v>2921.9264</v>
+        <v>2592</v>
       </c>
       <c r="G26" t="n">
-        <v>173</v>
+        <v>-5676.242670056499</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D27" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E27" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F27" t="n">
-        <v>41.8936</v>
+        <v>3647.9999</v>
       </c>
       <c r="G27" t="n">
-        <v>173.3333333333333</v>
+        <v>-9324.2425700565</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>174</v>
       </c>
       <c r="F28" t="n">
-        <v>34.1492</v>
+        <v>4197.7528</v>
       </c>
       <c r="G28" t="n">
-        <v>174</v>
+        <v>-9324.2425700565</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C29" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D29" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E29" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F29" t="n">
-        <v>391.8508</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>173.6666666666667</v>
+        <v>-9323.2425700565</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>174</v>
       </c>
       <c r="F30" t="n">
-        <v>932.2127</v>
+        <v>436</v>
       </c>
       <c r="G30" t="n">
-        <v>174</v>
+        <v>-9759.2425700565</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D31" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E31" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F31" t="n">
-        <v>6963.8705</v>
+        <v>243.3862</v>
       </c>
       <c r="G31" t="n">
-        <v>173.3333333333333</v>
+        <v>-9759.2425700565</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C32" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F32" t="n">
-        <v>1013</v>
+        <v>8826</v>
       </c>
       <c r="G32" t="n">
-        <v>173.6666666666667</v>
+        <v>-9759.2425700565</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C33" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D33" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E33" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F33" t="n">
-        <v>899.2538</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>174</v>
+        <v>-9758.2425700565</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D34" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E34" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F34" t="n">
-        <v>2541</v>
+        <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>175</v>
+        <v>-9958.2425700565</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D35" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F35" t="n">
-        <v>4632.743</v>
+        <v>2187</v>
       </c>
       <c r="G35" t="n">
-        <v>175</v>
+        <v>-9958.2425700565</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C36" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D36" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E36" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>175.3333333333333</v>
+        <v>-9957.2425700565</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E37" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F37" t="n">
-        <v>6165.6432</v>
+        <v>356</v>
       </c>
       <c r="G37" t="n">
-        <v>175.6666666666667</v>
+        <v>-10313.2425700565</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D38" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E38" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F38" t="n">
-        <v>1649.4419</v>
+        <v>4126</v>
       </c>
       <c r="G38" t="n">
-        <v>176</v>
+        <v>-10313.2425700565</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C39" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E39" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F39" t="n">
-        <v>3887.9283</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>176</v>
+        <v>-10312.2425700565</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C40" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D40" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E40" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F40" t="n">
-        <v>849.7</v>
+        <v>191.8</v>
       </c>
       <c r="G40" t="n">
-        <v>176</v>
+        <v>-10312.2425700565</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1845,19 +1845,19 @@
         <v>174</v>
       </c>
       <c r="C41" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D41" t="n">
         <v>174</v>
       </c>
       <c r="E41" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" t="n">
-        <v>3122.4594</v>
+        <v>3897</v>
       </c>
       <c r="G41" t="n">
-        <v>175.3333333333333</v>
+        <v>-14209.2425700565</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C42" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E42" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1886</v>
       </c>
       <c r="G42" t="n">
-        <v>175.3333333333333</v>
+        <v>-14209.2425700565</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C43" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D43" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E43" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F43" t="n">
-        <v>727.2666</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>174.6666666666667</v>
+        <v>-14208.2425700565</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C44" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D44" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E44" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F44" t="n">
-        <v>526.8833</v>
+        <v>1281.2409</v>
       </c>
       <c r="G44" t="n">
-        <v>174.6666666666667</v>
+        <v>-15489.4834700565</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>174</v>
       </c>
       <c r="F45" t="n">
-        <v>281</v>
+        <v>3072.3745</v>
       </c>
       <c r="G45" t="n">
-        <v>174</v>
+        <v>-12417.1089700565</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C46" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D46" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E46" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F46" t="n">
-        <v>5649.7175</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>173.6666666666667</v>
+        <v>-12416.1089700565</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D47" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E47" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>10687.9079</v>
       </c>
       <c r="G47" t="n">
-        <v>174</v>
+        <v>-23104.0168700565</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C48" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D48" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E48" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F48" t="n">
-        <v>4285.0298</v>
+        <v>1752.6416</v>
       </c>
       <c r="G48" t="n">
-        <v>174.3333333333333</v>
+        <v>-23104.0168700565</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C49" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D49" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E49" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F49" t="n">
-        <v>1.813</v>
+        <v>12675.9715</v>
       </c>
       <c r="G49" t="n">
-        <v>175</v>
+        <v>-23104.0168700565</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C50" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D50" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E50" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F50" t="n">
-        <v>20818.7454</v>
+        <v>1.2549</v>
       </c>
       <c r="G50" t="n">
-        <v>174</v>
+        <v>-23102.7619700565</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C51" t="n">
         <v>173</v>
       </c>
       <c r="D51" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E51" t="n">
         <v>173</v>
       </c>
       <c r="F51" t="n">
-        <v>1.2549</v>
+        <v>1301</v>
       </c>
       <c r="G51" t="n">
-        <v>173.3333333333333</v>
+        <v>-24403.7619700565</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>173</v>
       </c>
       <c r="C52" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D52" t="n">
         <v>173</v>
       </c>
       <c r="E52" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F52" t="n">
-        <v>4967.4611</v>
+        <v>6614.3214</v>
       </c>
       <c r="G52" t="n">
-        <v>172.3333333333333</v>
+        <v>-24403.7619700565</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" t="n">
         <v>172</v>
       </c>
       <c r="D53" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E53" t="n">
         <v>172</v>
       </c>
       <c r="F53" t="n">
-        <v>1170.0125</v>
+        <v>1625.7892</v>
       </c>
       <c r="G53" t="n">
-        <v>172.3333333333333</v>
+        <v>-26029.5511700565</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>172</v>
       </c>
       <c r="F54" t="n">
-        <v>496</v>
+        <v>2109.2281</v>
       </c>
       <c r="G54" t="n">
-        <v>172</v>
+        <v>-26029.5511700565</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2349,19 +2349,19 @@
         <v>172</v>
       </c>
       <c r="C55" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D55" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E55" t="n">
         <v>172</v>
       </c>
       <c r="F55" t="n">
-        <v>554</v>
+        <v>2921.9264</v>
       </c>
       <c r="G55" t="n">
-        <v>172</v>
+        <v>-23107.6247700565</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E56" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F56" t="n">
-        <v>2863</v>
+        <v>41.8936</v>
       </c>
       <c r="G56" t="n">
-        <v>172</v>
+        <v>-23149.5183700565</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C57" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E57" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F57" t="n">
-        <v>1.2549</v>
+        <v>34.1492</v>
       </c>
       <c r="G57" t="n">
-        <v>172.3333333333333</v>
+        <v>-23115.3691700565</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C58" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E58" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F58" t="n">
-        <v>474</v>
+        <v>391.8508</v>
       </c>
       <c r="G58" t="n">
-        <v>172.3333333333333</v>
+        <v>-23115.3691700565</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,35 +2490,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C59" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E59" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F59" t="n">
-        <v>1315.9432</v>
+        <v>932.2127</v>
       </c>
       <c r="G59" t="n">
-        <v>172.3333333333333</v>
+        <v>-23115.3691700565</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>172</v>
-      </c>
-      <c r="K59" t="n">
-        <v>172</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2530,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E60" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>6963.8705</v>
       </c>
       <c r="G60" t="n">
-        <v>172.6666666666667</v>
+        <v>-30079.2396700565</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2554,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>172</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2572,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C61" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E61" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F61" t="n">
-        <v>7.3294</v>
+        <v>1013</v>
       </c>
       <c r="G61" t="n">
-        <v>173</v>
+        <v>-29066.2396700565</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2596,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>172</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C62" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D62" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E62" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F62" t="n">
-        <v>586.9402</v>
+        <v>899.2538</v>
       </c>
       <c r="G62" t="n">
-        <v>173.3333333333333</v>
+        <v>-29066.2396700565</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2650,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C63" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D63" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E63" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F63" t="n">
-        <v>3967.2367</v>
+        <v>2541</v>
       </c>
       <c r="G63" t="n">
-        <v>172.6666666666667</v>
+        <v>-29066.2396700565</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2686,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C64" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D64" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E64" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F64" t="n">
-        <v>1694</v>
+        <v>4632.743</v>
       </c>
       <c r="G64" t="n">
-        <v>172.6666666666667</v>
+        <v>-29066.2396700565</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2722,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C65" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D65" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E65" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F65" t="n">
-        <v>1406</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>172.6666666666667</v>
+        <v>-29065.2396700565</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2758,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C66" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D66" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E66" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F66" t="n">
-        <v>4076</v>
+        <v>6165.6432</v>
       </c>
       <c r="G66" t="n">
-        <v>172.6666666666667</v>
+        <v>-29065.2396700565</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2794,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C67" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D67" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E67" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F67" t="n">
-        <v>5245.5269</v>
+        <v>1649.4419</v>
       </c>
       <c r="G67" t="n">
-        <v>172</v>
+        <v>-29065.2396700565</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2830,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C68" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D68" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E68" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F68" t="n">
-        <v>1807.2165</v>
+        <v>3887.9283</v>
       </c>
       <c r="G68" t="n">
-        <v>171.6666666666667</v>
+        <v>-29065.2396700565</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2866,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C69" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D69" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E69" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>849.7</v>
       </c>
       <c r="G69" t="n">
-        <v>171.6666666666667</v>
+        <v>-29065.2396700565</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2902,35 +2886,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C70" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D70" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E70" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F70" t="n">
-        <v>6.65</v>
+        <v>3122.4594</v>
       </c>
       <c r="G70" t="n">
-        <v>171.6666666666667</v>
+        <v>-32187.6990700565</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>172</v>
-      </c>
-      <c r="K70" t="n">
-        <v>172</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
@@ -2942,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C71" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D71" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E71" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F71" t="n">
-        <v>2825.7366</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>171.6666666666667</v>
+        <v>-32186.6990700565</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2966,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>172</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2996,10 +2970,10 @@
         <v>174</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>727.2666</v>
       </c>
       <c r="G72" t="n">
-        <v>172.3333333333333</v>
+        <v>-32913.9656700565</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3008,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>172</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3026,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C73" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D73" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E73" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F73" t="n">
-        <v>968</v>
+        <v>526.8833</v>
       </c>
       <c r="G73" t="n">
-        <v>173</v>
+        <v>-32913.9656700565</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3062,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E74" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F74" t="n">
-        <v>266.4845</v>
+        <v>281</v>
       </c>
       <c r="G74" t="n">
-        <v>173.3333333333333</v>
+        <v>-32913.9656700565</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3110,10 +3078,10 @@
         <v>173</v>
       </c>
       <c r="F75" t="n">
-        <v>742</v>
+        <v>5649.7175</v>
       </c>
       <c r="G75" t="n">
-        <v>173</v>
+        <v>-38563.6831700565</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3134,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C76" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D76" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E76" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F76" t="n">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>173</v>
+        <v>-38562.6831700565</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3170,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C77" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D77" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E77" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F77" t="n">
-        <v>3381.5773</v>
+        <v>4285.0298</v>
       </c>
       <c r="G77" t="n">
-        <v>173</v>
+        <v>-38562.6831700565</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3206,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C78" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D78" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E78" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F78" t="n">
-        <v>1283.8215</v>
+        <v>1.813</v>
       </c>
       <c r="G78" t="n">
-        <v>173</v>
+        <v>-38562.6831700565</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3245,19 +3213,19 @@
         <v>172</v>
       </c>
       <c r="C79" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D79" t="n">
         <v>172</v>
       </c>
       <c r="E79" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F79" t="n">
-        <v>1013.4484</v>
+        <v>20818.7454</v>
       </c>
       <c r="G79" t="n">
-        <v>172.3333333333333</v>
+        <v>-59381.4285700565</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3290,10 +3258,10 @@
         <v>173</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>1.2549</v>
       </c>
       <c r="G80" t="n">
-        <v>172.3333333333333</v>
+        <v>-59380.1736700565</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3317,19 +3285,19 @@
         <v>173</v>
       </c>
       <c r="C81" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D81" t="n">
         <v>173</v>
       </c>
       <c r="E81" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F81" t="n">
-        <v>4569</v>
+        <v>4967.4611</v>
       </c>
       <c r="G81" t="n">
-        <v>172.3333333333333</v>
+        <v>-64347.6347700565</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3353,19 +3321,19 @@
         <v>172</v>
       </c>
       <c r="C82" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E82" t="n">
         <v>172</v>
       </c>
       <c r="F82" t="n">
-        <v>2766.9082</v>
+        <v>1170.0125</v>
       </c>
       <c r="G82" t="n">
-        <v>173</v>
+        <v>-64347.6347700565</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3386,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C83" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D83" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E83" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>496</v>
       </c>
       <c r="G83" t="n">
-        <v>173.3333333333333</v>
+        <v>-64347.6347700565</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3422,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C84" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D84" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E84" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F84" t="n">
-        <v>4130.1276</v>
+        <v>554</v>
       </c>
       <c r="G84" t="n">
-        <v>172.6666666666667</v>
+        <v>-64347.6347700565</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3458,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D85" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E85" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F85" t="n">
-        <v>2923.9765</v>
+        <v>2863</v>
       </c>
       <c r="G85" t="n">
-        <v>172.6666666666667</v>
+        <v>-64347.6347700565</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3497,19 +3465,19 @@
         <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D86" t="n">
         <v>173</v>
       </c>
       <c r="E86" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F86" t="n">
-        <v>2923.9765</v>
+        <v>1.2549</v>
       </c>
       <c r="G86" t="n">
-        <v>172</v>
+        <v>-64346.3798700565</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3542,10 +3510,10 @@
         <v>172</v>
       </c>
       <c r="F87" t="n">
-        <v>9485.828299999999</v>
+        <v>474</v>
       </c>
       <c r="G87" t="n">
-        <v>172.3333333333333</v>
+        <v>-64820.3798700565</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3578,10 +3546,10 @@
         <v>172</v>
       </c>
       <c r="F88" t="n">
-        <v>826.8339</v>
+        <v>1315.9432</v>
       </c>
       <c r="G88" t="n">
-        <v>172</v>
+        <v>-64820.3798700565</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3602,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C89" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D89" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E89" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F89" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>172</v>
+        <v>-64819.3798700565</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3638,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D90" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E90" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F90" t="n">
-        <v>1493.7419</v>
+        <v>7.3294</v>
       </c>
       <c r="G90" t="n">
-        <v>172</v>
+        <v>-64826.7092700565</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3674,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D91" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E91" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F91" t="n">
-        <v>272</v>
+        <v>586.9402</v>
       </c>
       <c r="G91" t="n">
-        <v>172</v>
+        <v>-64826.7092700565</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3722,10 +3690,10 @@
         <v>172</v>
       </c>
       <c r="F92" t="n">
-        <v>362.5896</v>
+        <v>3967.2367</v>
       </c>
       <c r="G92" t="n">
-        <v>172</v>
+        <v>-68793.94597005651</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3746,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C93" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D93" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E93" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F93" t="n">
-        <v>301.2744</v>
+        <v>1694</v>
       </c>
       <c r="G93" t="n">
-        <v>172</v>
+        <v>-67099.94597005651</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3782,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C94" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D94" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E94" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F94" t="n">
-        <v>16.9998</v>
+        <v>1406</v>
       </c>
       <c r="G94" t="n">
-        <v>172</v>
+        <v>-67099.94597005651</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3830,10 +3798,10 @@
         <v>172</v>
       </c>
       <c r="F95" t="n">
-        <v>4055.7816</v>
+        <v>4076</v>
       </c>
       <c r="G95" t="n">
-        <v>172</v>
+        <v>-71175.94597005651</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3854,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C96" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E96" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>5245.5269</v>
       </c>
       <c r="G96" t="n">
-        <v>172</v>
+        <v>-76421.4728700565</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3902,23 +3870,19 @@
         <v>172</v>
       </c>
       <c r="F97" t="n">
-        <v>1200</v>
+        <v>1807.2165</v>
       </c>
       <c r="G97" t="n">
-        <v>172</v>
+        <v>-74614.25637005651</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>172</v>
-      </c>
-      <c r="K97" t="n">
-        <v>172</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
@@ -3942,10 +3906,10 @@
         <v>172</v>
       </c>
       <c r="F98" t="n">
-        <v>5400</v>
+        <v>50</v>
       </c>
       <c r="G98" t="n">
-        <v>172</v>
+        <v>-74614.25637005651</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3954,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>172</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3972,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D99" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E99" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F99" t="n">
-        <v>2751</v>
+        <v>6.65</v>
       </c>
       <c r="G99" t="n">
-        <v>172</v>
+        <v>-74620.9063700565</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3996,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>172</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4026,10 +3978,10 @@
         <v>172</v>
       </c>
       <c r="F100" t="n">
-        <v>2621</v>
+        <v>2825.7366</v>
       </c>
       <c r="G100" t="n">
-        <v>172</v>
+        <v>-71795.1697700565</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4050,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C101" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D101" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E101" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F101" t="n">
-        <v>920</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>172</v>
+        <v>-71794.1697700565</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4089,19 +4041,19 @@
         <v>172</v>
       </c>
       <c r="C102" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D102" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E102" t="n">
         <v>172</v>
       </c>
       <c r="F102" t="n">
-        <v>2071.2682</v>
+        <v>968</v>
       </c>
       <c r="G102" t="n">
-        <v>172</v>
+        <v>-72762.1697700565</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4134,10 +4086,10 @@
         <v>173</v>
       </c>
       <c r="F103" t="n">
-        <v>2923.9765</v>
+        <v>266.4845</v>
       </c>
       <c r="G103" t="n">
-        <v>172.3333333333333</v>
+        <v>-72762.1697700565</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4170,23 +4122,19 @@
         <v>173</v>
       </c>
       <c r="F104" t="n">
-        <v>1100</v>
+        <v>742</v>
       </c>
       <c r="G104" t="n">
-        <v>172.6666666666667</v>
+        <v>-72762.1697700565</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>173</v>
-      </c>
-      <c r="K104" t="n">
-        <v>173</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
@@ -4210,930 +4158,2012 @@
         <v>173</v>
       </c>
       <c r="F105" t="n">
-        <v>427.7055</v>
+        <v>251</v>
       </c>
       <c r="G105" t="n">
-        <v>173</v>
+        <v>-72762.1697700565</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>173</v>
-      </c>
-      <c r="K105" t="n">
-        <v>173</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>172</v>
+      </c>
+      <c r="C106" t="n">
+        <v>173</v>
+      </c>
+      <c r="D106" t="n">
+        <v>173</v>
+      </c>
+      <c r="E106" t="n">
+        <v>172</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3381.5773</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-72762.1697700565</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>173</v>
+      </c>
+      <c r="C107" t="n">
+        <v>173</v>
+      </c>
+      <c r="D107" t="n">
+        <v>173</v>
+      </c>
+      <c r="E107" t="n">
+        <v>173</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1283.8215</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-72762.1697700565</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>172</v>
+      </c>
+      <c r="C108" t="n">
+        <v>171</v>
+      </c>
+      <c r="D108" t="n">
+        <v>172</v>
+      </c>
+      <c r="E108" t="n">
+        <v>171</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1013.4484</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-73775.61817005649</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>173</v>
+      </c>
+      <c r="C109" t="n">
+        <v>173</v>
+      </c>
+      <c r="D109" t="n">
+        <v>173</v>
+      </c>
+      <c r="E109" t="n">
+        <v>173</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-73774.61817005649</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>173</v>
+      </c>
+      <c r="C110" t="n">
+        <v>173</v>
+      </c>
+      <c r="D110" t="n">
+        <v>173</v>
+      </c>
+      <c r="E110" t="n">
+        <v>173</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4569</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-73774.61817005649</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>172</v>
+      </c>
+      <c r="C111" t="n">
+        <v>173</v>
+      </c>
+      <c r="D111" t="n">
+        <v>173</v>
+      </c>
+      <c r="E111" t="n">
+        <v>172</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2766.9082</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-73774.61817005649</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>174</v>
+      </c>
+      <c r="C112" t="n">
+        <v>174</v>
+      </c>
+      <c r="D112" t="n">
+        <v>174</v>
+      </c>
+      <c r="E112" t="n">
+        <v>174</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-72774.61817005649</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>173</v>
+      </c>
+      <c r="C113" t="n">
+        <v>171</v>
+      </c>
+      <c r="D113" t="n">
+        <v>173</v>
+      </c>
+      <c r="E113" t="n">
+        <v>171</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4130.1276</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>173</v>
+      </c>
+      <c r="C114" t="n">
+        <v>173</v>
+      </c>
+      <c r="D114" t="n">
+        <v>173</v>
+      </c>
+      <c r="E114" t="n">
+        <v>173</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2923.9765</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>173</v>
+      </c>
+      <c r="C115" t="n">
+        <v>172</v>
+      </c>
+      <c r="D115" t="n">
+        <v>173</v>
+      </c>
+      <c r="E115" t="n">
+        <v>172</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2923.9765</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>172</v>
+      </c>
+      <c r="C116" t="n">
+        <v>172</v>
+      </c>
+      <c r="D116" t="n">
+        <v>172</v>
+      </c>
+      <c r="E116" t="n">
+        <v>172</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9485.828299999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>172</v>
+      </c>
+      <c r="C117" t="n">
+        <v>172</v>
+      </c>
+      <c r="D117" t="n">
+        <v>172</v>
+      </c>
+      <c r="E117" t="n">
+        <v>172</v>
+      </c>
+      <c r="F117" t="n">
+        <v>826.8339</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>172</v>
+      </c>
+      <c r="C118" t="n">
+        <v>172</v>
+      </c>
+      <c r="D118" t="n">
+        <v>172</v>
+      </c>
+      <c r="E118" t="n">
+        <v>172</v>
+      </c>
+      <c r="F118" t="n">
+        <v>73</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>172</v>
+      </c>
+      <c r="C119" t="n">
+        <v>172</v>
+      </c>
+      <c r="D119" t="n">
+        <v>172</v>
+      </c>
+      <c r="E119" t="n">
+        <v>172</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1493.7419</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>172</v>
+      </c>
+      <c r="C120" t="n">
+        <v>172</v>
+      </c>
+      <c r="D120" t="n">
+        <v>172</v>
+      </c>
+      <c r="E120" t="n">
+        <v>172</v>
+      </c>
+      <c r="F120" t="n">
+        <v>272</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>172</v>
+      </c>
+      <c r="C121" t="n">
+        <v>172</v>
+      </c>
+      <c r="D121" t="n">
+        <v>172</v>
+      </c>
+      <c r="E121" t="n">
+        <v>172</v>
+      </c>
+      <c r="F121" t="n">
+        <v>362.5896</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>172</v>
+      </c>
+      <c r="C122" t="n">
+        <v>172</v>
+      </c>
+      <c r="D122" t="n">
+        <v>172</v>
+      </c>
+      <c r="E122" t="n">
+        <v>172</v>
+      </c>
+      <c r="F122" t="n">
+        <v>301.2744</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>172</v>
+      </c>
+      <c r="C123" t="n">
+        <v>172</v>
+      </c>
+      <c r="D123" t="n">
+        <v>172</v>
+      </c>
+      <c r="E123" t="n">
+        <v>172</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16.9998</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>172</v>
+      </c>
+      <c r="C124" t="n">
+        <v>172</v>
+      </c>
+      <c r="D124" t="n">
+        <v>172</v>
+      </c>
+      <c r="E124" t="n">
+        <v>172</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4055.7816</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>172</v>
+      </c>
+      <c r="C125" t="n">
+        <v>172</v>
+      </c>
+      <c r="D125" t="n">
+        <v>172</v>
+      </c>
+      <c r="E125" t="n">
+        <v>172</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>172</v>
+      </c>
+      <c r="C126" t="n">
+        <v>172</v>
+      </c>
+      <c r="D126" t="n">
+        <v>172</v>
+      </c>
+      <c r="E126" t="n">
+        <v>172</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>172</v>
+      </c>
+      <c r="K126" t="n">
+        <v>172</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>172</v>
+      </c>
+      <c r="C127" t="n">
+        <v>172</v>
+      </c>
+      <c r="D127" t="n">
+        <v>172</v>
+      </c>
+      <c r="E127" t="n">
+        <v>172</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>172</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>172</v>
-      </c>
-      <c r="C106" t="n">
-        <v>174</v>
-      </c>
-      <c r="D106" t="n">
-        <v>174</v>
-      </c>
-      <c r="E106" t="n">
-        <v>172</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>172</v>
+      </c>
+      <c r="C128" t="n">
+        <v>172</v>
+      </c>
+      <c r="D128" t="n">
+        <v>172</v>
+      </c>
+      <c r="E128" t="n">
+        <v>172</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2751</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>172</v>
+      </c>
+      <c r="K128" t="n">
+        <v>172</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>172</v>
+      </c>
+      <c r="C129" t="n">
+        <v>172</v>
+      </c>
+      <c r="D129" t="n">
+        <v>172</v>
+      </c>
+      <c r="E129" t="n">
+        <v>172</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2621</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>172</v>
+      </c>
+      <c r="C130" t="n">
+        <v>172</v>
+      </c>
+      <c r="D130" t="n">
+        <v>172</v>
+      </c>
+      <c r="E130" t="n">
+        <v>172</v>
+      </c>
+      <c r="F130" t="n">
+        <v>920</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>172</v>
+      </c>
+      <c r="C131" t="n">
+        <v>172</v>
+      </c>
+      <c r="D131" t="n">
+        <v>172</v>
+      </c>
+      <c r="E131" t="n">
+        <v>172</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2071.2682</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>173</v>
+      </c>
+      <c r="C132" t="n">
+        <v>173</v>
+      </c>
+      <c r="D132" t="n">
+        <v>173</v>
+      </c>
+      <c r="E132" t="n">
+        <v>173</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2923.9765</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>173</v>
+      </c>
+      <c r="C133" t="n">
+        <v>173</v>
+      </c>
+      <c r="D133" t="n">
+        <v>173</v>
+      </c>
+      <c r="E133" t="n">
+        <v>173</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>173</v>
+      </c>
+      <c r="K133" t="n">
+        <v>173</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>173</v>
+      </c>
+      <c r="C134" t="n">
+        <v>173</v>
+      </c>
+      <c r="D134" t="n">
+        <v>173</v>
+      </c>
+      <c r="E134" t="n">
+        <v>173</v>
+      </c>
+      <c r="F134" t="n">
+        <v>427.7055</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>173</v>
+      </c>
+      <c r="K134" t="n">
+        <v>173</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>172</v>
+      </c>
+      <c r="C135" t="n">
+        <v>174</v>
+      </c>
+      <c r="D135" t="n">
+        <v>174</v>
+      </c>
+      <c r="E135" t="n">
+        <v>172</v>
+      </c>
+      <c r="F135" t="n">
         <v>16.39655172413793</v>
       </c>
-      <c r="G106" t="n">
-        <v>173.3333333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>173</v>
-      </c>
-      <c r="K106" t="n">
-        <v>173</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G135" t="n">
+        <v>-73964.37271833235</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>173</v>
+      </c>
+      <c r="K135" t="n">
+        <v>173</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>172</v>
-      </c>
-      <c r="C107" t="n">
-        <v>172</v>
-      </c>
-      <c r="D107" t="n">
-        <v>172</v>
-      </c>
-      <c r="E107" t="n">
-        <v>172</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>172</v>
+      </c>
+      <c r="C136" t="n">
+        <v>172</v>
+      </c>
+      <c r="D136" t="n">
+        <v>172</v>
+      </c>
+      <c r="E136" t="n">
+        <v>172</v>
+      </c>
+      <c r="F136" t="n">
         <v>1454</v>
       </c>
-      <c r="G107" t="n">
-        <v>173</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>173</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="G136" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>174</v>
+      </c>
+      <c r="K136" t="n">
+        <v>173</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>172</v>
-      </c>
-      <c r="C108" t="n">
-        <v>172</v>
-      </c>
-      <c r="D108" t="n">
-        <v>172</v>
-      </c>
-      <c r="E108" t="n">
-        <v>172</v>
-      </c>
-      <c r="F108" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>172</v>
+      </c>
+      <c r="C137" t="n">
+        <v>172</v>
+      </c>
+      <c r="D137" t="n">
+        <v>172</v>
+      </c>
+      <c r="E137" t="n">
+        <v>172</v>
+      </c>
+      <c r="F137" t="n">
         <v>1735.9091</v>
       </c>
-      <c r="G108" t="n">
-        <v>172.6666666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>173</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G137" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>172</v>
+      </c>
+      <c r="K137" t="n">
+        <v>173</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>172</v>
-      </c>
-      <c r="C109" t="n">
-        <v>172</v>
-      </c>
-      <c r="D109" t="n">
-        <v>172</v>
-      </c>
-      <c r="E109" t="n">
-        <v>172</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>172</v>
+      </c>
+      <c r="C138" t="n">
+        <v>172</v>
+      </c>
+      <c r="D138" t="n">
+        <v>172</v>
+      </c>
+      <c r="E138" t="n">
+        <v>172</v>
+      </c>
+      <c r="F138" t="n">
         <v>842.8188</v>
       </c>
-      <c r="G109" t="n">
-        <v>172</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>172</v>
-      </c>
-      <c r="K109" t="n">
-        <v>173</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="G138" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>172</v>
+      </c>
+      <c r="K138" t="n">
+        <v>173</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>172</v>
-      </c>
-      <c r="C110" t="n">
-        <v>172</v>
-      </c>
-      <c r="D110" t="n">
-        <v>172</v>
-      </c>
-      <c r="E110" t="n">
-        <v>172</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>172</v>
+      </c>
+      <c r="C139" t="n">
+        <v>172</v>
+      </c>
+      <c r="D139" t="n">
+        <v>172</v>
+      </c>
+      <c r="E139" t="n">
+        <v>172</v>
+      </c>
+      <c r="F139" t="n">
         <v>1864</v>
       </c>
-      <c r="G110" t="n">
-        <v>172</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>173</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G139" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>172</v>
+      </c>
+      <c r="K139" t="n">
+        <v>173</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>172</v>
-      </c>
-      <c r="C111" t="n">
-        <v>172</v>
-      </c>
-      <c r="D111" t="n">
-        <v>172</v>
-      </c>
-      <c r="E111" t="n">
-        <v>172</v>
-      </c>
-      <c r="F111" t="n">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>172</v>
+      </c>
+      <c r="C140" t="n">
+        <v>172</v>
+      </c>
+      <c r="D140" t="n">
+        <v>172</v>
+      </c>
+      <c r="E140" t="n">
+        <v>172</v>
+      </c>
+      <c r="F140" t="n">
         <v>1000</v>
       </c>
-      <c r="G111" t="n">
-        <v>172</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>172</v>
-      </c>
-      <c r="K111" t="n">
-        <v>173</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="G140" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>172</v>
+      </c>
+      <c r="K140" t="n">
+        <v>173</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>171</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C141" t="n">
         <v>171</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D141" t="n">
         <v>171</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E141" t="n">
         <v>171</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F141" t="n">
         <v>4440.5528</v>
       </c>
-      <c r="G112" t="n">
-        <v>171.6666666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>172</v>
-      </c>
-      <c r="K112" t="n">
-        <v>173</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G141" t="n">
+        <v>-79858.92551833235</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>172</v>
+      </c>
+      <c r="K141" t="n">
+        <v>173</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>171</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C142" t="n">
         <v>171</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D142" t="n">
         <v>171</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E142" t="n">
         <v>171</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F142" t="n">
         <v>11640.5536</v>
       </c>
-      <c r="G113" t="n">
-        <v>171.3333333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
+      <c r="G142" t="n">
+        <v>-79858.92551833235</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
         <v>171</v>
       </c>
-      <c r="K113" t="n">
-        <v>173</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K142" t="n">
+        <v>173</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>173</v>
-      </c>
-      <c r="C114" t="n">
-        <v>172</v>
-      </c>
-      <c r="D114" t="n">
-        <v>173</v>
-      </c>
-      <c r="E114" t="n">
-        <v>172</v>
-      </c>
-      <c r="F114" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>173</v>
+      </c>
+      <c r="C143" t="n">
+        <v>172</v>
+      </c>
+      <c r="D143" t="n">
+        <v>173</v>
+      </c>
+      <c r="E143" t="n">
+        <v>172</v>
+      </c>
+      <c r="F143" t="n">
         <v>455.6222</v>
       </c>
-      <c r="G114" t="n">
-        <v>171.3333333333333</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>171</v>
-      </c>
-      <c r="K114" t="n">
-        <v>173</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="G143" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>173</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>172</v>
-      </c>
-      <c r="C115" t="n">
-        <v>172</v>
-      </c>
-      <c r="D115" t="n">
-        <v>172</v>
-      </c>
-      <c r="E115" t="n">
-        <v>172</v>
-      </c>
-      <c r="F115" t="n">
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>172</v>
+      </c>
+      <c r="C144" t="n">
+        <v>172</v>
+      </c>
+      <c r="D144" t="n">
+        <v>172</v>
+      </c>
+      <c r="E144" t="n">
+        <v>172</v>
+      </c>
+      <c r="F144" t="n">
         <v>354.6511</v>
       </c>
-      <c r="G115" t="n">
-        <v>171.6666666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>172</v>
-      </c>
-      <c r="K115" t="n">
-        <v>173</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G144" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>173</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>172</v>
-      </c>
-      <c r="C116" t="n">
-        <v>172</v>
-      </c>
-      <c r="D116" t="n">
-        <v>172</v>
-      </c>
-      <c r="E116" t="n">
-        <v>172</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>172</v>
+      </c>
+      <c r="C145" t="n">
+        <v>172</v>
+      </c>
+      <c r="D145" t="n">
+        <v>172</v>
+      </c>
+      <c r="E145" t="n">
+        <v>172</v>
+      </c>
+      <c r="F145" t="n">
         <v>458</v>
       </c>
-      <c r="G116" t="n">
-        <v>172</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>173</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="G145" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>172</v>
+      </c>
+      <c r="K145" t="n">
+        <v>173</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>172</v>
-      </c>
-      <c r="C117" t="n">
-        <v>172</v>
-      </c>
-      <c r="D117" t="n">
-        <v>172</v>
-      </c>
-      <c r="E117" t="n">
-        <v>172</v>
-      </c>
-      <c r="F117" t="n">
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>172</v>
+      </c>
+      <c r="C146" t="n">
+        <v>172</v>
+      </c>
+      <c r="D146" t="n">
+        <v>172</v>
+      </c>
+      <c r="E146" t="n">
+        <v>172</v>
+      </c>
+      <c r="F146" t="n">
         <v>33</v>
       </c>
-      <c r="G117" t="n">
-        <v>172</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>173</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="G146" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>172</v>
+      </c>
+      <c r="K146" t="n">
+        <v>173</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>172</v>
-      </c>
-      <c r="C118" t="n">
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>172</v>
+      </c>
+      <c r="C147" t="n">
         <v>171</v>
       </c>
-      <c r="D118" t="n">
-        <v>172</v>
-      </c>
-      <c r="E118" t="n">
+      <c r="D147" t="n">
+        <v>172</v>
+      </c>
+      <c r="E147" t="n">
         <v>171</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F147" t="n">
         <v>421.9999</v>
       </c>
-      <c r="G118" t="n">
-        <v>171.6666666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>173</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="G147" t="n">
+        <v>-79825.30321833235</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>172</v>
+      </c>
+      <c r="K147" t="n">
+        <v>173</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
         <v>171</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C148" t="n">
         <v>171</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D148" t="n">
         <v>171</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E148" t="n">
         <v>171</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F148" t="n">
         <v>35.7434</v>
       </c>
-      <c r="G119" t="n">
-        <v>171.3333333333333</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>173</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="G148" t="n">
+        <v>-79825.30321833235</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>171</v>
+      </c>
+      <c r="K148" t="n">
+        <v>173</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>174</v>
-      </c>
-      <c r="C120" t="n">
-        <v>174</v>
-      </c>
-      <c r="D120" t="n">
-        <v>174</v>
-      </c>
-      <c r="E120" t="n">
-        <v>174</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>174</v>
+      </c>
+      <c r="C149" t="n">
+        <v>174</v>
+      </c>
+      <c r="D149" t="n">
+        <v>174</v>
+      </c>
+      <c r="E149" t="n">
+        <v>174</v>
+      </c>
+      <c r="F149" t="n">
         <v>56.0344</v>
       </c>
-      <c r="G120" t="n">
-        <v>172</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>173</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="G149" t="n">
+        <v>-79769.26881833235</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>171</v>
+      </c>
+      <c r="K149" t="n">
+        <v>173</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>173</v>
-      </c>
-      <c r="C121" t="n">
-        <v>173</v>
-      </c>
-      <c r="D121" t="n">
-        <v>173</v>
-      </c>
-      <c r="E121" t="n">
-        <v>173</v>
-      </c>
-      <c r="F121" t="n">
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>173</v>
+      </c>
+      <c r="C150" t="n">
+        <v>173</v>
+      </c>
+      <c r="D150" t="n">
+        <v>173</v>
+      </c>
+      <c r="E150" t="n">
+        <v>173</v>
+      </c>
+      <c r="F150" t="n">
         <v>498.9161</v>
       </c>
-      <c r="G121" t="n">
-        <v>172.6666666666667</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>173</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="G150" t="n">
+        <v>-80268.18491833235</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>174</v>
+      </c>
+      <c r="K150" t="n">
+        <v>173</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>173</v>
-      </c>
-      <c r="C122" t="n">
-        <v>173</v>
-      </c>
-      <c r="D122" t="n">
-        <v>173</v>
-      </c>
-      <c r="E122" t="n">
-        <v>173</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>173</v>
+      </c>
+      <c r="C151" t="n">
+        <v>173</v>
+      </c>
+      <c r="D151" t="n">
+        <v>173</v>
+      </c>
+      <c r="E151" t="n">
+        <v>173</v>
+      </c>
+      <c r="F151" t="n">
         <v>1968.2138</v>
       </c>
-      <c r="G122" t="n">
-        <v>173.3333333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>173</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="G151" t="n">
+        <v>-80268.18491833235</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>173</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>173</v>
-      </c>
-      <c r="C123" t="n">
-        <v>173</v>
-      </c>
-      <c r="D123" t="n">
-        <v>173</v>
-      </c>
-      <c r="E123" t="n">
-        <v>173</v>
-      </c>
-      <c r="F123" t="n">
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>173</v>
+      </c>
+      <c r="C152" t="n">
+        <v>173</v>
+      </c>
+      <c r="D152" t="n">
+        <v>173</v>
+      </c>
+      <c r="E152" t="n">
+        <v>173</v>
+      </c>
+      <c r="F152" t="n">
         <v>6850.5317</v>
       </c>
-      <c r="G123" t="n">
-        <v>173</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>173</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G152" t="n">
+        <v>-80268.18491833235</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>173</v>
+      </c>
+      <c r="K152" t="n">
+        <v>173</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>173</v>
-      </c>
-      <c r="C124" t="n">
-        <v>173</v>
-      </c>
-      <c r="D124" t="n">
-        <v>173</v>
-      </c>
-      <c r="E124" t="n">
-        <v>173</v>
-      </c>
-      <c r="F124" t="n">
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>173</v>
+      </c>
+      <c r="C153" t="n">
+        <v>173</v>
+      </c>
+      <c r="D153" t="n">
+        <v>173</v>
+      </c>
+      <c r="E153" t="n">
+        <v>173</v>
+      </c>
+      <c r="F153" t="n">
         <v>270.4448</v>
       </c>
-      <c r="G124" t="n">
-        <v>173</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>173</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G153" t="n">
+        <v>-80268.18491833235</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>173</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>174</v>
-      </c>
-      <c r="C125" t="n">
-        <v>174</v>
-      </c>
-      <c r="D125" t="n">
-        <v>174</v>
-      </c>
-      <c r="E125" t="n">
-        <v>174</v>
-      </c>
-      <c r="F125" t="n">
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>174</v>
+      </c>
+      <c r="C154" t="n">
+        <v>174</v>
+      </c>
+      <c r="D154" t="n">
+        <v>174</v>
+      </c>
+      <c r="E154" t="n">
+        <v>174</v>
+      </c>
+      <c r="F154" t="n">
         <v>856.3390000000001</v>
       </c>
-      <c r="G125" t="n">
-        <v>173.3333333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>173</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="G154" t="n">
+        <v>-79411.84591833234</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>173</v>
+      </c>
+      <c r="K154" t="n">
+        <v>173</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>173</v>
-      </c>
-      <c r="C126" t="n">
-        <v>173</v>
-      </c>
-      <c r="D126" t="n">
-        <v>173</v>
-      </c>
-      <c r="E126" t="n">
-        <v>173</v>
-      </c>
-      <c r="F126" t="n">
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>173</v>
+      </c>
+      <c r="C155" t="n">
+        <v>173</v>
+      </c>
+      <c r="D155" t="n">
+        <v>173</v>
+      </c>
+      <c r="E155" t="n">
+        <v>173</v>
+      </c>
+      <c r="F155" t="n">
         <v>300</v>
       </c>
-      <c r="G126" t="n">
-        <v>173.3333333333333</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>174</v>
-      </c>
-      <c r="K126" t="n">
-        <v>173</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="G155" t="n">
+        <v>-79711.84591833234</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>173</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest RDN.xlsx
+++ b/BackTest/2019-10-27 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-8445.909670056499</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-8987.909670056499</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-8986.909670056499</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-3386.909670056499</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-2887.621470056499</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-5861.621470056499</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>2074.478529943502</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-1060.726570056499</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-2372.642870056498</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-2371.642870056498</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-3528.742870056498</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-6882.242770056499</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-6881.242770056499</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-8268.242670056499</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-5676.242670056499</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-9324.2425700565</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,19 @@
         <v>-72774.61817005649</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>173</v>
+      </c>
+      <c r="J112" t="n">
+        <v>173</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4120,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>173</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4159,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>173</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4198,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>173</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4237,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>173</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4276,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>173</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4315,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>173</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4354,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>173</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4393,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>173</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4432,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>173</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4471,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>173</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4510,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>173</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4549,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>173</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4588,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>173</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,22 +4625,21 @@
         <v>-76904.7457700565</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>172</v>
-      </c>
-      <c r="K126" t="n">
-        <v>172</v>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>173</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4962,22 +4666,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>172</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>173</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5002,26 +4703,21 @@
         <v>-76904.7457700565</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>172</v>
-      </c>
-      <c r="K128" t="n">
-        <v>172</v>
-      </c>
-      <c r="L128" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5048,16 +4744,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>173</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5084,16 +4783,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>173</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5120,16 +4822,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>173</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5156,16 +4861,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>173</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5190,22 +4898,23 @@
         <v>-73980.76927005649</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="J133" t="n">
         <v>173</v>
       </c>
-      <c r="K133" t="n">
-        <v>173</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5230,26 +4939,23 @@
         <v>-73980.76927005649</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="J134" t="n">
         <v>173</v>
       </c>
-      <c r="K134" t="n">
-        <v>173</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5276,24 +4982,19 @@
       <c r="H135" t="n">
         <v>1</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>173</v>
       </c>
-      <c r="K135" t="n">
-        <v>173</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5318,26 +5019,23 @@
         <v>-75418.37271833235</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J136" t="n">
-        <v>174</v>
-      </c>
-      <c r="K136" t="n">
-        <v>173</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5364,24 +5062,19 @@
       <c r="H137" t="n">
         <v>1</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>172</v>
-      </c>
-      <c r="K137" t="n">
-        <v>173</v>
-      </c>
-      <c r="L137" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5408,24 +5101,19 @@
       <c r="H138" t="n">
         <v>1</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>172</v>
-      </c>
-      <c r="K138" t="n">
-        <v>173</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5452,24 +5140,19 @@
       <c r="H139" t="n">
         <v>1</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>172</v>
-      </c>
-      <c r="K139" t="n">
-        <v>173</v>
-      </c>
-      <c r="L139" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5496,24 +5179,19 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>172</v>
-      </c>
-      <c r="K140" t="n">
-        <v>173</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5540,24 +5218,19 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>172</v>
-      </c>
-      <c r="K141" t="n">
-        <v>173</v>
-      </c>
-      <c r="L141" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5584,24 +5257,19 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>171</v>
-      </c>
-      <c r="K142" t="n">
-        <v>173</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5626,24 +5294,21 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>173</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>173</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5668,24 +5333,21 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>173</v>
-      </c>
-      <c r="L144" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>173</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5712,24 +5374,19 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>172</v>
-      </c>
-      <c r="K145" t="n">
-        <v>173</v>
-      </c>
-      <c r="L145" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5756,24 +5413,19 @@
       <c r="H146" t="n">
         <v>1</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>172</v>
-      </c>
-      <c r="K146" t="n">
-        <v>173</v>
-      </c>
-      <c r="L146" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5800,24 +5452,19 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>172</v>
-      </c>
-      <c r="K147" t="n">
-        <v>173</v>
-      </c>
-      <c r="L147" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5842,26 +5489,23 @@
         <v>-79825.30321833235</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="J148" t="n">
-        <v>171</v>
-      </c>
-      <c r="K148" t="n">
-        <v>173</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5888,24 +5532,19 @@
       <c r="H149" t="n">
         <v>1</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>171</v>
-      </c>
-      <c r="K149" t="n">
-        <v>173</v>
-      </c>
-      <c r="L149" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5932,24 +5571,19 @@
       <c r="H150" t="n">
         <v>1</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>174</v>
-      </c>
-      <c r="K150" t="n">
-        <v>173</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>173</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5974,24 +5608,21 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>173</v>
-      </c>
-      <c r="L151" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>173</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6016,26 +5647,23 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="J152" t="n">
         <v>173</v>
       </c>
-      <c r="K152" t="n">
-        <v>173</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6060,24 +5688,21 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>173</v>
-      </c>
-      <c r="L153" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>173</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6104,24 +5729,19 @@
       <c r="H154" t="n">
         <v>1</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>173</v>
       </c>
-      <c r="K154" t="n">
-        <v>173</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6146,26 +5766,25 @@
         <v>-79711.84591833234</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>173</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>174</v>
+      </c>
+      <c r="J155" t="n">
+        <v>173</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest RDN.xlsx
+++ b/BackTest/2019-10-27 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-8445.909670056499</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-8987.909670056499</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-8986.909670056499</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3386.909670056499</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2887.621470056499</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-5861.621470056499</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1925.478529943502</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2074.478529943502</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1060.726570056499</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2372.642870056498</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2371.642870056498</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3528.742870056498</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6882.242770056499</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6881.242770056499</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-8268.242670056499</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8268.242670056499</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5676.242670056499</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-9324.2425700565</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-9324.2425700565</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9323.2425700565</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-9758.2425700565</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-9958.2425700565</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-9957.2425700565</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -4081,14 +4081,10 @@
         <v>-72774.61817005649</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>173</v>
-      </c>
-      <c r="J112" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4121,876 +4117,772 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>173</v>
-      </c>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>173</v>
+      </c>
+      <c r="C114" t="n">
+        <v>173</v>
+      </c>
+      <c r="D114" t="n">
+        <v>173</v>
+      </c>
+      <c r="E114" t="n">
+        <v>173</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2923.9765</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>173</v>
+      </c>
+      <c r="C115" t="n">
+        <v>172</v>
+      </c>
+      <c r="D115" t="n">
+        <v>173</v>
+      </c>
+      <c r="E115" t="n">
+        <v>172</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2923.9765</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>172</v>
+      </c>
+      <c r="C116" t="n">
+        <v>172</v>
+      </c>
+      <c r="D116" t="n">
+        <v>172</v>
+      </c>
+      <c r="E116" t="n">
+        <v>172</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9485.828299999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>172</v>
+      </c>
+      <c r="C117" t="n">
+        <v>172</v>
+      </c>
+      <c r="D117" t="n">
+        <v>172</v>
+      </c>
+      <c r="E117" t="n">
+        <v>172</v>
+      </c>
+      <c r="F117" t="n">
+        <v>826.8339</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>172</v>
+      </c>
+      <c r="C118" t="n">
+        <v>172</v>
+      </c>
+      <c r="D118" t="n">
+        <v>172</v>
+      </c>
+      <c r="E118" t="n">
+        <v>172</v>
+      </c>
+      <c r="F118" t="n">
+        <v>73</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>172</v>
+      </c>
+      <c r="C119" t="n">
+        <v>172</v>
+      </c>
+      <c r="D119" t="n">
+        <v>172</v>
+      </c>
+      <c r="E119" t="n">
+        <v>172</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1493.7419</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>172</v>
+      </c>
+      <c r="C120" t="n">
+        <v>172</v>
+      </c>
+      <c r="D120" t="n">
+        <v>172</v>
+      </c>
+      <c r="E120" t="n">
+        <v>172</v>
+      </c>
+      <c r="F120" t="n">
+        <v>272</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>172</v>
+      </c>
+      <c r="C121" t="n">
+        <v>172</v>
+      </c>
+      <c r="D121" t="n">
+        <v>172</v>
+      </c>
+      <c r="E121" t="n">
+        <v>172</v>
+      </c>
+      <c r="F121" t="n">
+        <v>362.5896</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>172</v>
+      </c>
+      <c r="C122" t="n">
+        <v>172</v>
+      </c>
+      <c r="D122" t="n">
+        <v>172</v>
+      </c>
+      <c r="E122" t="n">
+        <v>172</v>
+      </c>
+      <c r="F122" t="n">
+        <v>301.2744</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>172</v>
+      </c>
+      <c r="C123" t="n">
+        <v>172</v>
+      </c>
+      <c r="D123" t="n">
+        <v>172</v>
+      </c>
+      <c r="E123" t="n">
+        <v>172</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16.9998</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>172</v>
+      </c>
+      <c r="C124" t="n">
+        <v>172</v>
+      </c>
+      <c r="D124" t="n">
+        <v>172</v>
+      </c>
+      <c r="E124" t="n">
+        <v>172</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4055.7816</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>172</v>
+      </c>
+      <c r="J124" t="n">
+        <v>172</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>172</v>
+      </c>
+      <c r="C125" t="n">
+        <v>172</v>
+      </c>
+      <c r="D125" t="n">
+        <v>172</v>
+      </c>
+      <c r="E125" t="n">
+        <v>172</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>172</v>
+      </c>
+      <c r="J125" t="n">
+        <v>172</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>172</v>
+      </c>
+      <c r="C126" t="n">
+        <v>172</v>
+      </c>
+      <c r="D126" t="n">
+        <v>172</v>
+      </c>
+      <c r="E126" t="n">
+        <v>172</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>172</v>
+      </c>
+      <c r="J126" t="n">
+        <v>172</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>172</v>
+      </c>
+      <c r="C127" t="n">
+        <v>172</v>
+      </c>
+      <c r="D127" t="n">
+        <v>172</v>
+      </c>
+      <c r="E127" t="n">
+        <v>172</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>172</v>
+      </c>
+      <c r="C128" t="n">
+        <v>172</v>
+      </c>
+      <c r="D128" t="n">
+        <v>172</v>
+      </c>
+      <c r="E128" t="n">
+        <v>172</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2751</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>172</v>
+      </c>
+      <c r="C129" t="n">
+        <v>172</v>
+      </c>
+      <c r="D129" t="n">
+        <v>172</v>
+      </c>
+      <c r="E129" t="n">
+        <v>172</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2621</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>172</v>
+      </c>
+      <c r="C130" t="n">
+        <v>172</v>
+      </c>
+      <c r="D130" t="n">
+        <v>172</v>
+      </c>
+      <c r="E130" t="n">
+        <v>172</v>
+      </c>
+      <c r="F130" t="n">
+        <v>920</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>172</v>
+      </c>
+      <c r="C131" t="n">
+        <v>172</v>
+      </c>
+      <c r="D131" t="n">
+        <v>172</v>
+      </c>
+      <c r="E131" t="n">
+        <v>172</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2071.2682</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-76904.7457700565</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>173</v>
+      </c>
+      <c r="C132" t="n">
+        <v>173</v>
+      </c>
+      <c r="D132" t="n">
+        <v>173</v>
+      </c>
+      <c r="E132" t="n">
+        <v>173</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2923.9765</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>173</v>
+      </c>
+      <c r="C133" t="n">
+        <v>173</v>
+      </c>
+      <c r="D133" t="n">
+        <v>173</v>
+      </c>
+      <c r="E133" t="n">
+        <v>173</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>173</v>
+      </c>
+      <c r="J133" t="n">
+        <v>173</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>173</v>
+      </c>
+      <c r="C134" t="n">
+        <v>173</v>
+      </c>
+      <c r="D134" t="n">
+        <v>173</v>
+      </c>
+      <c r="E134" t="n">
+        <v>173</v>
+      </c>
+      <c r="F134" t="n">
+        <v>427.7055</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-73980.76927005649</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>173</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>172</v>
+      </c>
+      <c r="C135" t="n">
+        <v>174</v>
+      </c>
+      <c r="D135" t="n">
+        <v>174</v>
+      </c>
+      <c r="E135" t="n">
+        <v>172</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16.39655172413793</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-73964.37271833235</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>173</v>
+      </c>
+      <c r="J135" t="n">
+        <v>173</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>173</v>
-      </c>
-      <c r="C114" t="n">
-        <v>173</v>
-      </c>
-      <c r="D114" t="n">
-        <v>173</v>
-      </c>
-      <c r="E114" t="n">
-        <v>173</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2923.9765</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>173</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>173</v>
-      </c>
-      <c r="C115" t="n">
-        <v>172</v>
-      </c>
-      <c r="D115" t="n">
-        <v>173</v>
-      </c>
-      <c r="E115" t="n">
-        <v>172</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2923.9765</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>173</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>172</v>
-      </c>
-      <c r="C116" t="n">
-        <v>172</v>
-      </c>
-      <c r="D116" t="n">
-        <v>172</v>
-      </c>
-      <c r="E116" t="n">
-        <v>172</v>
-      </c>
-      <c r="F116" t="n">
-        <v>9485.828299999999</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>173</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>172</v>
-      </c>
-      <c r="C117" t="n">
-        <v>172</v>
-      </c>
-      <c r="D117" t="n">
-        <v>172</v>
-      </c>
-      <c r="E117" t="n">
-        <v>172</v>
-      </c>
-      <c r="F117" t="n">
-        <v>826.8339</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>173</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>172</v>
-      </c>
-      <c r="C118" t="n">
-        <v>172</v>
-      </c>
-      <c r="D118" t="n">
-        <v>172</v>
-      </c>
-      <c r="E118" t="n">
-        <v>172</v>
-      </c>
-      <c r="F118" t="n">
-        <v>73</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>173</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>172</v>
-      </c>
-      <c r="C119" t="n">
-        <v>172</v>
-      </c>
-      <c r="D119" t="n">
-        <v>172</v>
-      </c>
-      <c r="E119" t="n">
-        <v>172</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1493.7419</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>173</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>172</v>
-      </c>
-      <c r="C120" t="n">
-        <v>172</v>
-      </c>
-      <c r="D120" t="n">
-        <v>172</v>
-      </c>
-      <c r="E120" t="n">
-        <v>172</v>
-      </c>
-      <c r="F120" t="n">
-        <v>272</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>173</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>172</v>
-      </c>
-      <c r="C121" t="n">
-        <v>172</v>
-      </c>
-      <c r="D121" t="n">
-        <v>172</v>
-      </c>
-      <c r="E121" t="n">
-        <v>172</v>
-      </c>
-      <c r="F121" t="n">
-        <v>362.5896</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>173</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>172</v>
-      </c>
-      <c r="C122" t="n">
-        <v>172</v>
-      </c>
-      <c r="D122" t="n">
-        <v>172</v>
-      </c>
-      <c r="E122" t="n">
-        <v>172</v>
-      </c>
-      <c r="F122" t="n">
-        <v>301.2744</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>173</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>172</v>
-      </c>
-      <c r="C123" t="n">
-        <v>172</v>
-      </c>
-      <c r="D123" t="n">
-        <v>172</v>
-      </c>
-      <c r="E123" t="n">
-        <v>172</v>
-      </c>
-      <c r="F123" t="n">
-        <v>16.9998</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>173</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>172</v>
-      </c>
-      <c r="C124" t="n">
-        <v>172</v>
-      </c>
-      <c r="D124" t="n">
-        <v>172</v>
-      </c>
-      <c r="E124" t="n">
-        <v>172</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4055.7816</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>173</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>172</v>
-      </c>
-      <c r="C125" t="n">
-        <v>172</v>
-      </c>
-      <c r="D125" t="n">
-        <v>172</v>
-      </c>
-      <c r="E125" t="n">
-        <v>172</v>
-      </c>
-      <c r="F125" t="n">
-        <v>7</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>173</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>172</v>
-      </c>
-      <c r="C126" t="n">
-        <v>172</v>
-      </c>
-      <c r="D126" t="n">
-        <v>172</v>
-      </c>
-      <c r="E126" t="n">
-        <v>172</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>173</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>172</v>
-      </c>
-      <c r="C127" t="n">
-        <v>172</v>
-      </c>
-      <c r="D127" t="n">
-        <v>172</v>
-      </c>
-      <c r="E127" t="n">
-        <v>172</v>
-      </c>
-      <c r="F127" t="n">
-        <v>5400</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>173</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>172</v>
-      </c>
-      <c r="C128" t="n">
-        <v>172</v>
-      </c>
-      <c r="D128" t="n">
-        <v>172</v>
-      </c>
-      <c r="E128" t="n">
-        <v>172</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2751</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>173</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>172</v>
-      </c>
-      <c r="C129" t="n">
-        <v>172</v>
-      </c>
-      <c r="D129" t="n">
-        <v>172</v>
-      </c>
-      <c r="E129" t="n">
-        <v>172</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2621</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>173</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>172</v>
-      </c>
-      <c r="C130" t="n">
-        <v>172</v>
-      </c>
-      <c r="D130" t="n">
-        <v>172</v>
-      </c>
-      <c r="E130" t="n">
-        <v>172</v>
-      </c>
-      <c r="F130" t="n">
-        <v>920</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>173</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>172</v>
-      </c>
-      <c r="C131" t="n">
-        <v>172</v>
-      </c>
-      <c r="D131" t="n">
-        <v>172</v>
-      </c>
-      <c r="E131" t="n">
-        <v>172</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2071.2682</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>173</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>173</v>
-      </c>
-      <c r="C132" t="n">
-        <v>173</v>
-      </c>
-      <c r="D132" t="n">
-        <v>173</v>
-      </c>
-      <c r="E132" t="n">
-        <v>173</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2923.9765</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>173</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>173</v>
-      </c>
-      <c r="C133" t="n">
-        <v>173</v>
-      </c>
-      <c r="D133" t="n">
-        <v>173</v>
-      </c>
-      <c r="E133" t="n">
-        <v>173</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>173</v>
-      </c>
-      <c r="J133" t="n">
-        <v>173</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>173</v>
-      </c>
-      <c r="C134" t="n">
-        <v>173</v>
-      </c>
-      <c r="D134" t="n">
-        <v>173</v>
-      </c>
-      <c r="E134" t="n">
-        <v>173</v>
-      </c>
-      <c r="F134" t="n">
-        <v>427.7055</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>173</v>
-      </c>
-      <c r="J134" t="n">
-        <v>173</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>172</v>
-      </c>
-      <c r="C135" t="n">
-        <v>174</v>
-      </c>
-      <c r="D135" t="n">
-        <v>174</v>
-      </c>
-      <c r="E135" t="n">
-        <v>172</v>
-      </c>
-      <c r="F135" t="n">
-        <v>16.39655172413793</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-73964.37271833235</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>173</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5019,7 +4911,7 @@
         <v>-75418.37271833235</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>174</v>
@@ -5062,7 +4954,9 @@
       <c r="H137" t="n">
         <v>1</v>
       </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>172</v>
+      </c>
       <c r="J137" t="n">
         <v>173</v>
       </c>
@@ -5101,7 +4995,9 @@
       <c r="H138" t="n">
         <v>1</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>172</v>
+      </c>
       <c r="J138" t="n">
         <v>173</v>
       </c>
@@ -5140,7 +5036,9 @@
       <c r="H139" t="n">
         <v>1</v>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>172</v>
+      </c>
       <c r="J139" t="n">
         <v>173</v>
       </c>
@@ -5179,7 +5077,9 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>172</v>
+      </c>
       <c r="J140" t="n">
         <v>173</v>
       </c>
@@ -5218,7 +5118,9 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>172</v>
+      </c>
       <c r="J141" t="n">
         <v>173</v>
       </c>
@@ -5257,7 +5159,9 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>171</v>
+      </c>
       <c r="J142" t="n">
         <v>173</v>
       </c>
@@ -5296,7 +5200,9 @@
       <c r="H143" t="n">
         <v>1</v>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>171</v>
+      </c>
       <c r="J143" t="n">
         <v>173</v>
       </c>
@@ -5335,7 +5241,9 @@
       <c r="H144" t="n">
         <v>1</v>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>172</v>
+      </c>
       <c r="J144" t="n">
         <v>173</v>
       </c>
@@ -5374,7 +5282,9 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>172</v>
+      </c>
       <c r="J145" t="n">
         <v>173</v>
       </c>
@@ -5413,7 +5323,9 @@
       <c r="H146" t="n">
         <v>1</v>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>172</v>
+      </c>
       <c r="J146" t="n">
         <v>173</v>
       </c>
@@ -5452,7 +5364,9 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>172</v>
+      </c>
       <c r="J147" t="n">
         <v>173</v>
       </c>
@@ -5489,7 +5403,7 @@
         <v>-79825.30321833235</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>171</v>
@@ -5532,7 +5446,9 @@
       <c r="H149" t="n">
         <v>1</v>
       </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>171</v>
+      </c>
       <c r="J149" t="n">
         <v>173</v>
       </c>
@@ -5571,7 +5487,9 @@
       <c r="H150" t="n">
         <v>1</v>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>174</v>
+      </c>
       <c r="J150" t="n">
         <v>173</v>
       </c>
@@ -5610,7 +5528,9 @@
       <c r="H151" t="n">
         <v>1</v>
       </c>
-      <c r="I151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>173</v>
+      </c>
       <c r="J151" t="n">
         <v>173</v>
       </c>
@@ -5647,11 +5567,9 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>173</v>
       </c>
@@ -5690,7 +5608,9 @@
       <c r="H153" t="n">
         <v>1</v>
       </c>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>173</v>
+      </c>
       <c r="J153" t="n">
         <v>173</v>
       </c>
@@ -5729,7 +5649,9 @@
       <c r="H154" t="n">
         <v>1</v>
       </c>
-      <c r="I154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>173</v>
+      </c>
       <c r="J154" t="n">
         <v>173</v>
       </c>
@@ -5766,7 +5688,7 @@
         <v>-79711.84591833234</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>174</v>
@@ -5785,6 +5707,6 @@
       <c r="M155" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest RDN.xlsx
+++ b/BackTest/2019-10-27 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-8986.909670056499</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2887.621470056499</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2372.642870056498</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2371.642870056498</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-8268.242670056499</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5676.242670056499</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-9324.2425700565</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-9324.2425700565</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9323.2425700565</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-9758.2425700565</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-9958.2425700565</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-9957.2425700565</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-10312.2425700565</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -4477,14 +4477,10 @@
         <v>-76904.7457700565</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>172</v>
-      </c>
-      <c r="J124" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4514,19 +4510,11 @@
         <v>-76904.7457700565</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>172</v>
-      </c>
-      <c r="J125" t="n">
-        <v>172</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4555,19 +4543,11 @@
         <v>-76904.7457700565</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>172</v>
-      </c>
-      <c r="J126" t="n">
-        <v>172</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4774,10 @@
         <v>-73980.76927005649</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>173</v>
-      </c>
-      <c r="J133" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4834,383 +4810,325 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>173</v>
-      </c>
-      <c r="K134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>172</v>
+      </c>
+      <c r="C135" t="n">
+        <v>174</v>
+      </c>
+      <c r="D135" t="n">
+        <v>174</v>
+      </c>
+      <c r="E135" t="n">
+        <v>172</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16.39655172413793</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-73964.37271833235</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>172</v>
+      </c>
+      <c r="C136" t="n">
+        <v>172</v>
+      </c>
+      <c r="D136" t="n">
+        <v>172</v>
+      </c>
+      <c r="E136" t="n">
+        <v>172</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1454</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>172</v>
+      </c>
+      <c r="C137" t="n">
+        <v>172</v>
+      </c>
+      <c r="D137" t="n">
+        <v>172</v>
+      </c>
+      <c r="E137" t="n">
+        <v>172</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1735.9091</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>172</v>
+      </c>
+      <c r="C138" t="n">
+        <v>172</v>
+      </c>
+      <c r="D138" t="n">
+        <v>172</v>
+      </c>
+      <c r="E138" t="n">
+        <v>172</v>
+      </c>
+      <c r="F138" t="n">
+        <v>842.8188</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>172</v>
+      </c>
+      <c r="C139" t="n">
+        <v>172</v>
+      </c>
+      <c r="D139" t="n">
+        <v>172</v>
+      </c>
+      <c r="E139" t="n">
+        <v>172</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1864</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>172</v>
+      </c>
+      <c r="C140" t="n">
+        <v>172</v>
+      </c>
+      <c r="D140" t="n">
+        <v>172</v>
+      </c>
+      <c r="E140" t="n">
+        <v>172</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-75418.37271833235</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>171</v>
+      </c>
+      <c r="C141" t="n">
+        <v>171</v>
+      </c>
+      <c r="D141" t="n">
+        <v>171</v>
+      </c>
+      <c r="E141" t="n">
+        <v>171</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4440.5528</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-79858.92551833235</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>172</v>
+      </c>
+      <c r="J141" t="n">
+        <v>172</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>171</v>
+      </c>
+      <c r="C142" t="n">
+        <v>171</v>
+      </c>
+      <c r="D142" t="n">
+        <v>171</v>
+      </c>
+      <c r="E142" t="n">
+        <v>171</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11640.5536</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-79858.92551833235</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>171</v>
+      </c>
+      <c r="J142" t="n">
+        <v>172</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>172</v>
-      </c>
-      <c r="C135" t="n">
-        <v>174</v>
-      </c>
-      <c r="D135" t="n">
-        <v>174</v>
-      </c>
-      <c r="E135" t="n">
-        <v>172</v>
-      </c>
-      <c r="F135" t="n">
-        <v>16.39655172413793</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-73964.37271833235</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>173</v>
-      </c>
-      <c r="J135" t="n">
-        <v>173</v>
-      </c>
-      <c r="K135" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>173</v>
+      </c>
+      <c r="C143" t="n">
+        <v>172</v>
+      </c>
+      <c r="D143" t="n">
+        <v>173</v>
+      </c>
+      <c r="E143" t="n">
+        <v>172</v>
+      </c>
+      <c r="F143" t="n">
+        <v>455.6222</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>171</v>
+      </c>
+      <c r="J143" t="n">
+        <v>172</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>172</v>
-      </c>
-      <c r="C136" t="n">
-        <v>172</v>
-      </c>
-      <c r="D136" t="n">
-        <v>172</v>
-      </c>
-      <c r="E136" t="n">
-        <v>172</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1454</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>174</v>
-      </c>
-      <c r="J136" t="n">
-        <v>173</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>172</v>
-      </c>
-      <c r="C137" t="n">
-        <v>172</v>
-      </c>
-      <c r="D137" t="n">
-        <v>172</v>
-      </c>
-      <c r="E137" t="n">
-        <v>172</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1735.9091</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>172</v>
-      </c>
-      <c r="J137" t="n">
-        <v>173</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>172</v>
-      </c>
-      <c r="C138" t="n">
-        <v>172</v>
-      </c>
-      <c r="D138" t="n">
-        <v>172</v>
-      </c>
-      <c r="E138" t="n">
-        <v>172</v>
-      </c>
-      <c r="F138" t="n">
-        <v>842.8188</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>172</v>
-      </c>
-      <c r="J138" t="n">
-        <v>173</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>172</v>
-      </c>
-      <c r="C139" t="n">
-        <v>172</v>
-      </c>
-      <c r="D139" t="n">
-        <v>172</v>
-      </c>
-      <c r="E139" t="n">
-        <v>172</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1864</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>172</v>
-      </c>
-      <c r="J139" t="n">
-        <v>173</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>172</v>
-      </c>
-      <c r="C140" t="n">
-        <v>172</v>
-      </c>
-      <c r="D140" t="n">
-        <v>172</v>
-      </c>
-      <c r="E140" t="n">
-        <v>172</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>172</v>
-      </c>
-      <c r="J140" t="n">
-        <v>173</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>171</v>
-      </c>
-      <c r="C141" t="n">
-        <v>171</v>
-      </c>
-      <c r="D141" t="n">
-        <v>171</v>
-      </c>
-      <c r="E141" t="n">
-        <v>171</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4440.5528</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-79858.92551833235</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>172</v>
-      </c>
-      <c r="J141" t="n">
-        <v>173</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>171</v>
-      </c>
-      <c r="C142" t="n">
-        <v>171</v>
-      </c>
-      <c r="D142" t="n">
-        <v>171</v>
-      </c>
-      <c r="E142" t="n">
-        <v>171</v>
-      </c>
-      <c r="F142" t="n">
-        <v>11640.5536</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-79858.92551833235</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>171</v>
-      </c>
-      <c r="J142" t="n">
-        <v>173</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>173</v>
-      </c>
-      <c r="C143" t="n">
-        <v>172</v>
-      </c>
-      <c r="D143" t="n">
-        <v>173</v>
-      </c>
-      <c r="E143" t="n">
-        <v>172</v>
-      </c>
-      <c r="F143" t="n">
-        <v>455.6222</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>171</v>
-      </c>
-      <c r="J143" t="n">
-        <v>173</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5239,13 +5157,11 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5286,7 +5202,7 @@
         <v>172</v>
       </c>
       <c r="J145" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5321,13 +5237,11 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5362,13 +5276,11 @@
         <v>-79825.30321833235</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5403,13 +5315,11 @@
         <v>-79825.30321833235</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5450,7 +5360,7 @@
         <v>171</v>
       </c>
       <c r="J149" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5485,13 +5395,11 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5526,13 +5434,11 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5567,11 +5473,13 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>173</v>
+      </c>
       <c r="J152" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5606,13 +5514,11 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5647,13 +5553,11 @@
         <v>-79411.84591833234</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5688,13 +5592,11 @@
         <v>-79711.84591833234</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5707,6 +5609,6 @@
       <c r="M155" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest RDN.xlsx
+++ b/BackTest/2019-10-27 BackTest RDN.xlsx
@@ -484,7 +484,7 @@
         <v>-8987.909670056499</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-8986.909670056499</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3386.909670056499</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2887.621470056499</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2372.642870056498</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2371.642870056498</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3528.742870056498</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6882.242770056499</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6881.242770056499</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-8268.242670056499</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-10312.2425700565</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -5038,14 +5038,10 @@
         <v>-79858.92551833235</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>172</v>
-      </c>
-      <c r="J141" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5075,298 +5071,254 @@
         <v>-79858.92551833235</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>173</v>
+      </c>
+      <c r="C143" t="n">
+        <v>172</v>
+      </c>
+      <c r="D143" t="n">
+        <v>173</v>
+      </c>
+      <c r="E143" t="n">
+        <v>172</v>
+      </c>
+      <c r="F143" t="n">
+        <v>455.6222</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>172</v>
+      </c>
+      <c r="C144" t="n">
+        <v>172</v>
+      </c>
+      <c r="D144" t="n">
+        <v>172</v>
+      </c>
+      <c r="E144" t="n">
+        <v>172</v>
+      </c>
+      <c r="F144" t="n">
+        <v>354.6511</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>172</v>
+      </c>
+      <c r="C145" t="n">
+        <v>172</v>
+      </c>
+      <c r="D145" t="n">
+        <v>172</v>
+      </c>
+      <c r="E145" t="n">
+        <v>172</v>
+      </c>
+      <c r="F145" t="n">
+        <v>458</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>172</v>
+      </c>
+      <c r="C146" t="n">
+        <v>172</v>
+      </c>
+      <c r="D146" t="n">
+        <v>172</v>
+      </c>
+      <c r="E146" t="n">
+        <v>172</v>
+      </c>
+      <c r="F146" t="n">
+        <v>33</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-79403.30331833236</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>172</v>
+      </c>
+      <c r="C147" t="n">
         <v>171</v>
       </c>
-      <c r="J142" t="n">
-        <v>172</v>
-      </c>
-      <c r="K142" t="inlineStr">
+      <c r="D147" t="n">
+        <v>172</v>
+      </c>
+      <c r="E147" t="n">
+        <v>171</v>
+      </c>
+      <c r="F147" t="n">
+        <v>421.9999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-79825.30321833235</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>171</v>
+      </c>
+      <c r="C148" t="n">
+        <v>171</v>
+      </c>
+      <c r="D148" t="n">
+        <v>171</v>
+      </c>
+      <c r="E148" t="n">
+        <v>171</v>
+      </c>
+      <c r="F148" t="n">
+        <v>35.7434</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-79825.30321833235</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>171</v>
+      </c>
+      <c r="J148" t="n">
+        <v>171</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>174</v>
+      </c>
+      <c r="C149" t="n">
+        <v>174</v>
+      </c>
+      <c r="D149" t="n">
+        <v>174</v>
+      </c>
+      <c r="E149" t="n">
+        <v>174</v>
+      </c>
+      <c r="F149" t="n">
+        <v>56.0344</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-79769.26881833235</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>171</v>
+      </c>
+      <c r="J149" t="n">
+        <v>171</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>173</v>
-      </c>
-      <c r="C143" t="n">
-        <v>172</v>
-      </c>
-      <c r="D143" t="n">
-        <v>173</v>
-      </c>
-      <c r="E143" t="n">
-        <v>172</v>
-      </c>
-      <c r="F143" t="n">
-        <v>455.6222</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>171</v>
-      </c>
-      <c r="J143" t="n">
-        <v>172</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>172</v>
-      </c>
-      <c r="C144" t="n">
-        <v>172</v>
-      </c>
-      <c r="D144" t="n">
-        <v>172</v>
-      </c>
-      <c r="E144" t="n">
-        <v>172</v>
-      </c>
-      <c r="F144" t="n">
-        <v>354.6511</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>172</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>172</v>
-      </c>
-      <c r="C145" t="n">
-        <v>172</v>
-      </c>
-      <c r="D145" t="n">
-        <v>172</v>
-      </c>
-      <c r="E145" t="n">
-        <v>172</v>
-      </c>
-      <c r="F145" t="n">
-        <v>458</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>172</v>
-      </c>
-      <c r="J145" t="n">
-        <v>172</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>172</v>
-      </c>
-      <c r="C146" t="n">
-        <v>172</v>
-      </c>
-      <c r="D146" t="n">
-        <v>172</v>
-      </c>
-      <c r="E146" t="n">
-        <v>172</v>
-      </c>
-      <c r="F146" t="n">
-        <v>33</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>172</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>172</v>
-      </c>
-      <c r="C147" t="n">
-        <v>171</v>
-      </c>
-      <c r="D147" t="n">
-        <v>172</v>
-      </c>
-      <c r="E147" t="n">
-        <v>171</v>
-      </c>
-      <c r="F147" t="n">
-        <v>421.9999</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-79825.30321833235</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>172</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>171</v>
-      </c>
-      <c r="C148" t="n">
-        <v>171</v>
-      </c>
-      <c r="D148" t="n">
-        <v>171</v>
-      </c>
-      <c r="E148" t="n">
-        <v>171</v>
-      </c>
-      <c r="F148" t="n">
-        <v>35.7434</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-79825.30321833235</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>172</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>174</v>
-      </c>
-      <c r="C149" t="n">
-        <v>174</v>
-      </c>
-      <c r="D149" t="n">
-        <v>174</v>
-      </c>
-      <c r="E149" t="n">
-        <v>174</v>
-      </c>
-      <c r="F149" t="n">
-        <v>56.0344</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-79769.26881833235</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>171</v>
-      </c>
-      <c r="J149" t="n">
-        <v>172</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5399,11 +5351,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5437,14 +5389,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>172</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5473,19 +5419,11 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>173</v>
-      </c>
-      <c r="J152" t="n">
-        <v>172</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5517,14 +5455,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>172</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5556,14 +5488,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>172</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5595,14 +5521,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>172</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest RDN.xlsx
+++ b/BackTest/2019-10-27 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>322.8358</v>
       </c>
       <c r="G2" t="n">
-        <v>-8445.909670056499</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>542</v>
       </c>
       <c r="G3" t="n">
-        <v>-8987.909670056499</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-8986.909670056499</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5600</v>
       </c>
       <c r="G5" t="n">
-        <v>-3386.909670056499</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>499.2882</v>
       </c>
       <c r="G6" t="n">
-        <v>-2887.621470056499</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2974</v>
       </c>
       <c r="G7" t="n">
-        <v>-5861.621470056499</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>7787.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1925.478529943502</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>149</v>
       </c>
       <c r="G9" t="n">
-        <v>2074.478529943502</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3135.2051</v>
       </c>
       <c r="G10" t="n">
-        <v>-1060.726570056499</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-1010.726570056499</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1402</v>
       </c>
       <c r="G12" t="n">
-        <v>-1010.726570056499</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>301</v>
       </c>
       <c r="G13" t="n">
-        <v>-1010.726570056499</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2000</v>
       </c>
       <c r="G14" t="n">
-        <v>-1010.726570056499</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>900</v>
       </c>
       <c r="G15" t="n">
-        <v>-1010.726570056499</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>259.1</v>
       </c>
       <c r="G16" t="n">
-        <v>-1010.726570056499</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1361.9163</v>
       </c>
       <c r="G17" t="n">
-        <v>-2372.642870056498</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-2371.642870056498</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1158.1</v>
       </c>
       <c r="G19" t="n">
-        <v>-3529.742870056498</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>826</v>
       </c>
       <c r="G20" t="n">
-        <v>-3529.742870056498</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>-3528.742870056498</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3353.4999</v>
       </c>
       <c r="G22" t="n">
-        <v>-6882.242770056499</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-6881.242770056499</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1386.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>-8268.242670056499</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3675.3943</v>
       </c>
       <c r="G25" t="n">
-        <v>-8268.242670056499</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2592</v>
       </c>
       <c r="G26" t="n">
-        <v>-5676.242670056499</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3647.9999</v>
       </c>
       <c r="G27" t="n">
-        <v>-9324.2425700565</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4197.7528</v>
       </c>
       <c r="G28" t="n">
-        <v>-9324.2425700565</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-9323.2425700565</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>436</v>
       </c>
       <c r="G30" t="n">
-        <v>-9759.2425700565</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>243.3862</v>
       </c>
       <c r="G31" t="n">
-        <v>-9759.2425700565</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>8826</v>
       </c>
       <c r="G32" t="n">
-        <v>-9759.2425700565</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-9758.2425700565</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>-9958.2425700565</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2187</v>
       </c>
       <c r="G35" t="n">
-        <v>-9958.2425700565</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-9957.2425700565</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>356</v>
       </c>
       <c r="G37" t="n">
-        <v>-10313.2425700565</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>4126</v>
       </c>
       <c r="G38" t="n">
-        <v>-10313.2425700565</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-10312.2425700565</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>191.8</v>
       </c>
       <c r="G40" t="n">
-        <v>-10312.2425700565</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3897</v>
       </c>
       <c r="G41" t="n">
-        <v>-14209.2425700565</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1886</v>
       </c>
       <c r="G42" t="n">
-        <v>-14209.2425700565</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>-14208.2425700565</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1281.2409</v>
       </c>
       <c r="G44" t="n">
-        <v>-15489.4834700565</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>3072.3745</v>
       </c>
       <c r="G45" t="n">
-        <v>-12417.1089700565</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>-12416.1089700565</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>10687.9079</v>
       </c>
       <c r="G47" t="n">
-        <v>-23104.0168700565</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1752.6416</v>
       </c>
       <c r="G48" t="n">
-        <v>-23104.0168700565</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>12675.9715</v>
       </c>
       <c r="G49" t="n">
-        <v>-23104.0168700565</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1.2549</v>
       </c>
       <c r="G50" t="n">
-        <v>-23102.7619700565</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1301</v>
       </c>
       <c r="G51" t="n">
-        <v>-24403.7619700565</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>6614.3214</v>
       </c>
       <c r="G52" t="n">
-        <v>-24403.7619700565</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1625.7892</v>
       </c>
       <c r="G53" t="n">
-        <v>-26029.5511700565</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2109.2281</v>
       </c>
       <c r="G54" t="n">
-        <v>-26029.5511700565</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2921.9264</v>
       </c>
       <c r="G55" t="n">
-        <v>-23107.6247700565</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>41.8936</v>
       </c>
       <c r="G56" t="n">
-        <v>-23149.5183700565</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>34.1492</v>
       </c>
       <c r="G57" t="n">
-        <v>-23115.3691700565</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>391.8508</v>
       </c>
       <c r="G58" t="n">
-        <v>-23115.3691700565</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>932.2127</v>
       </c>
       <c r="G59" t="n">
-        <v>-23115.3691700565</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>6963.8705</v>
       </c>
       <c r="G60" t="n">
-        <v>-30079.2396700565</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1013</v>
       </c>
       <c r="G61" t="n">
-        <v>-29066.2396700565</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>899.2538</v>
       </c>
       <c r="G62" t="n">
-        <v>-29066.2396700565</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2541</v>
       </c>
       <c r="G63" t="n">
-        <v>-29066.2396700565</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>4632.743</v>
       </c>
       <c r="G64" t="n">
-        <v>-29066.2396700565</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>-29065.2396700565</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>6165.6432</v>
       </c>
       <c r="G66" t="n">
-        <v>-29065.2396700565</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1649.4419</v>
       </c>
       <c r="G67" t="n">
-        <v>-29065.2396700565</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3887.9283</v>
       </c>
       <c r="G68" t="n">
-        <v>-29065.2396700565</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>849.7</v>
       </c>
       <c r="G69" t="n">
-        <v>-29065.2396700565</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>3122.4594</v>
       </c>
       <c r="G70" t="n">
-        <v>-32187.6990700565</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-32186.6990700565</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>727.2666</v>
       </c>
       <c r="G72" t="n">
-        <v>-32913.9656700565</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>526.8833</v>
       </c>
       <c r="G73" t="n">
-        <v>-32913.9656700565</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>281</v>
       </c>
       <c r="G74" t="n">
-        <v>-32913.9656700565</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>5649.7175</v>
       </c>
       <c r="G75" t="n">
-        <v>-38563.6831700565</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>-38562.6831700565</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>4285.0298</v>
       </c>
       <c r="G77" t="n">
-        <v>-38562.6831700565</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1.813</v>
       </c>
       <c r="G78" t="n">
-        <v>-38562.6831700565</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>20818.7454</v>
       </c>
       <c r="G79" t="n">
-        <v>-59381.4285700565</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1.2549</v>
       </c>
       <c r="G80" t="n">
-        <v>-59380.1736700565</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>4967.4611</v>
       </c>
       <c r="G81" t="n">
-        <v>-64347.6347700565</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1170.0125</v>
       </c>
       <c r="G82" t="n">
-        <v>-64347.6347700565</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>496</v>
       </c>
       <c r="G83" t="n">
-        <v>-64347.6347700565</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>554</v>
       </c>
       <c r="G84" t="n">
-        <v>-64347.6347700565</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2863</v>
       </c>
       <c r="G85" t="n">
-        <v>-64347.6347700565</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1.2549</v>
       </c>
       <c r="G86" t="n">
-        <v>-64346.3798700565</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>474</v>
       </c>
       <c r="G87" t="n">
-        <v>-64820.3798700565</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1315.9432</v>
       </c>
       <c r="G88" t="n">
-        <v>-64820.3798700565</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-64819.3798700565</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>7.3294</v>
       </c>
       <c r="G90" t="n">
-        <v>-64826.7092700565</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>586.9402</v>
       </c>
       <c r="G91" t="n">
-        <v>-64826.7092700565</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>3967.2367</v>
       </c>
       <c r="G92" t="n">
-        <v>-68793.94597005651</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1694</v>
       </c>
       <c r="G93" t="n">
-        <v>-67099.94597005651</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1406</v>
       </c>
       <c r="G94" t="n">
-        <v>-67099.94597005651</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>4076</v>
       </c>
       <c r="G95" t="n">
-        <v>-71175.94597005651</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>5245.5269</v>
       </c>
       <c r="G96" t="n">
-        <v>-76421.4728700565</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1807.2165</v>
       </c>
       <c r="G97" t="n">
-        <v>-74614.25637005651</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>50</v>
       </c>
       <c r="G98" t="n">
-        <v>-74614.25637005651</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>6.65</v>
       </c>
       <c r="G99" t="n">
-        <v>-74620.9063700565</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>2825.7366</v>
       </c>
       <c r="G100" t="n">
-        <v>-71795.1697700565</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-71794.1697700565</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>968</v>
       </c>
       <c r="G102" t="n">
-        <v>-72762.1697700565</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>266.4845</v>
       </c>
       <c r="G103" t="n">
-        <v>-72762.1697700565</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>742</v>
       </c>
       <c r="G104" t="n">
-        <v>-72762.1697700565</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>251</v>
       </c>
       <c r="G105" t="n">
-        <v>-72762.1697700565</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>3381.5773</v>
       </c>
       <c r="G106" t="n">
-        <v>-72762.1697700565</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1283.8215</v>
       </c>
       <c r="G107" t="n">
-        <v>-72762.1697700565</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>1013.4484</v>
       </c>
       <c r="G108" t="n">
-        <v>-73775.61817005649</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-73774.61817005649</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>4569</v>
       </c>
       <c r="G110" t="n">
-        <v>-73774.61817005649</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2766.9082</v>
       </c>
       <c r="G111" t="n">
-        <v>-73774.61817005649</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1000</v>
       </c>
       <c r="G112" t="n">
-        <v>-72774.61817005649</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>4130.1276</v>
       </c>
       <c r="G113" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2923.9765</v>
       </c>
       <c r="G114" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>2923.9765</v>
       </c>
       <c r="G115" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>9485.828299999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>826.8339</v>
       </c>
       <c r="G117" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>73</v>
       </c>
       <c r="G118" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1493.7419</v>
       </c>
       <c r="G119" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>272</v>
       </c>
       <c r="G120" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>362.5896</v>
       </c>
       <c r="G121" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>301.2744</v>
       </c>
       <c r="G122" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>16.9998</v>
       </c>
       <c r="G123" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>4055.7816</v>
       </c>
       <c r="G124" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>7</v>
       </c>
       <c r="G125" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>1200</v>
       </c>
       <c r="G126" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>5400</v>
       </c>
       <c r="G127" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>2751</v>
       </c>
       <c r="G128" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2621</v>
       </c>
       <c r="G129" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>920</v>
       </c>
       <c r="G130" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>2071.2682</v>
       </c>
       <c r="G131" t="n">
-        <v>-76904.7457700565</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>2923.9765</v>
       </c>
       <c r="G132" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1100</v>
       </c>
       <c r="G133" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>427.7055</v>
       </c>
       <c r="G134" t="n">
-        <v>-73980.76927005649</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>16.39655172413793</v>
       </c>
       <c r="G135" t="n">
-        <v>-73964.37271833235</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1454</v>
       </c>
       <c r="G136" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1735.9091</v>
       </c>
       <c r="G137" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>842.8188</v>
       </c>
       <c r="G138" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>1864</v>
       </c>
       <c r="G139" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1000</v>
       </c>
       <c r="G140" t="n">
-        <v>-75418.37271833235</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>4440.5528</v>
       </c>
       <c r="G141" t="n">
-        <v>-79858.92551833235</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>11640.5536</v>
       </c>
       <c r="G142" t="n">
-        <v>-79858.92551833235</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>455.6222</v>
       </c>
       <c r="G143" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>354.6511</v>
       </c>
       <c r="G144" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>458</v>
       </c>
       <c r="G145" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>33</v>
       </c>
       <c r="G146" t="n">
-        <v>-79403.30331833236</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,21 @@
         <v>421.9999</v>
       </c>
       <c r="G147" t="n">
-        <v>-79825.30321833235</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,22 +4829,19 @@
         <v>35.7434</v>
       </c>
       <c r="G148" t="n">
-        <v>-79825.30321833235</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>171</v>
-      </c>
-      <c r="J148" t="n">
-        <v>171</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5303,26 +4863,21 @@
         <v>56.0344</v>
       </c>
       <c r="G149" t="n">
-        <v>-79769.26881833235</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
         <v>171</v>
       </c>
-      <c r="J149" t="n">
-        <v>171</v>
-      </c>
-      <c r="K149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5344,24 +4899,19 @@
         <v>498.9161</v>
       </c>
       <c r="G150" t="n">
-        <v>-80268.18491833235</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>171</v>
-      </c>
-      <c r="K150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5383,18 +4933,19 @@
         <v>1968.2138</v>
       </c>
       <c r="G151" t="n">
-        <v>-80268.18491833235</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5416,18 +4967,19 @@
         <v>6850.5317</v>
       </c>
       <c r="G152" t="n">
-        <v>-80268.18491833235</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5449,18 +5001,19 @@
         <v>270.4448</v>
       </c>
       <c r="G153" t="n">
-        <v>-80268.18491833235</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5482,18 +5035,19 @@
         <v>856.3390000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>-79411.84591833234</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5515,18 +5069,19 @@
         <v>300</v>
       </c>
       <c r="G155" t="n">
-        <v>-79711.84591833234</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
